--- a/dissertation/twinpeaks-sa/#twinPeaksData.xlsx
+++ b/dissertation/twinpeaks-sa/#twinPeaksData.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markb\Documents\GitHub\uniWork\dissertation\twinpeaks-sa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCE45BE-8577-464D-BAB8-B7EA6AD38ACC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0BF70E-E6B1-4762-9C9C-6D66E0CD9748}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7128" yWindow="216" windowWidth="17280" windowHeight="8964" xr2:uid="{A2F98D7D-73BE-49C7-AAAC-B193CEB33A64}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A2F98D7D-73BE-49C7-AAAC-B193CEB33A64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +63,7 @@
     <t>affin-positive</t>
   </si>
   <si>
-    <t>affin-sent</t>
+    <t>run-time-mins</t>
   </si>
 </sst>
 </file>
@@ -101,42 +101,11 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -155,17 +124,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -201,40 +159,44 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -243,7 +205,9 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -254,29 +218,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -286,92 +230,73 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -423,7 +348,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Season 3 - Score</a:t>
+              <a:t>Season One</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -469,11 +394,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>imdb-rating</c:v>
+                  <c:v>affin-sum</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -488,135 +413,42 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$32:$B$49</c:f>
+              <c:f>Sheet1!$H$2:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$32:$C$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>8.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9.4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-80E3-495D-AB85-94DB89C46D01}"/>
+              <c16:uniqueId val="{00000000-05B9-4933-8653-BF905E76C9F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -625,11 +457,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>rotten-tomatoes</c:v>
+                  <c:v>affin-positive</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -644,135 +476,42 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$32:$B$49</c:f>
+              <c:f>Sheet1!$I$2:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$32:$D$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-80E3-495D-AB85-94DB89C46D01}"/>
+              <c16:uniqueId val="{00000001-05B9-4933-8653-BF905E76C9F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -781,11 +520,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>rt-critics</c:v>
+                  <c:v>affin-negatives</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -800,139 +539,47 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$32:$B$49</c:f>
+              <c:f>Sheet1!$J$2:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$32:$E$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.6</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-80E3-495D-AB85-94DB89C46D01}"/>
+              <c16:uniqueId val="{00000002-05B9-4933-8653-BF905E76C9F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -942,16 +589,71 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1930505856"/>
-        <c:axId val="1872372976"/>
+        <c:axId val="1339987311"/>
+        <c:axId val="1343068351"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1930505856"/>
+        <c:axId val="1339987311"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Sentiment Per Episode</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -989,7 +691,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1872372976"/>
+        <c:crossAx val="1343068351"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -997,7 +699,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1872372976"/>
+        <c:axId val="1343068351"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1017,6 +719,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Sentiment</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1048,13 +810,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1930505856"/>
+        <c:crossAx val="1339987311"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="25400">
+        <a:ln>
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -1162,8 +924,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Season 1</a:t>
+              <a:rPr lang="en-GB"/>
+              <a:t>Season Two</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1200,15 +962,16 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>Sheet1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1218,101 +981,308 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$9</c:f>
+              <c:f>Sheet1!$H$10:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>34.6</c:v>
+                  <c:v>463</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.2</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.2</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.7</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.399999999999999</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.3</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.6</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.7</c:v>
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A417-4C53-8349-95DEB467B72D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>affin-positive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$9</c:f>
+              <c:f>Sheet1!$I$10:$I$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>433</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>292</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>202</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>323</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>286</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>289</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>266</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>228</c:v>
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4FD1-4B6E-8013-4BB818E37FB9}"/>
+              <c16:uniqueId val="{00000001-A417-4C53-8349-95DEB467B72D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>affin-negatives</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$10:$J$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A417-4C53-8349-95DEB467B72D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1320,30 +1290,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1999298335"/>
-        <c:axId val="1991090735"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1999298335"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1342435087"/>
+        <c:axId val="1181154911"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1342435087"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1365,8 +1323,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Sentiment Score</a:t>
+                  <a:t>Sentiment</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Per Episode</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1408,8 +1371,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1436,12 +1399,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1991090735"/>
+        <c:crossAx val="1181154911"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="1991090735"/>
+        <c:axId val="1181154911"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1482,7 +1448,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>US Viewers (millions)</a:t>
+                  <a:t>Total Sentiment</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1522,14 +1488,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1553,9 +1513,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1999298335"/>
+        <c:crossAx val="1342435087"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1565,6 +1525,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1617,6 +1608,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Season Three</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1649,188 +1665,286 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>affin-sum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$10:$F$31</c:f>
+              <c:f>Sheet1!$H$32:$H$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>19.100000000000001</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.4</c:v>
+                  <c:v>279</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.7</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.8</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.4</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.3</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.2</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.3</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.4</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.1</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.1</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.3</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.8000000000000007</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.6999999999999993</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.1999999999999993</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.8</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.1999999999999993</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.9</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10.4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10.4</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-77DA-49D5-8492-CA8A30FCA0FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>affin-positive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$10:$G$31</c:f>
+              <c:f>Sheet1!$I$32:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>463</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>199</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>222</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>241</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>198</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>323</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>188</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>311</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>253</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>304</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>273</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>298</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>290</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>285</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>304</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>318</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>267</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>304</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>321</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>288</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>108</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8246-4774-A5F7-AE93B872CF1E}"/>
+              <c16:uniqueId val="{00000001-77DA-49D5-8492-CA8A30FCA0FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>affin-negatives</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$32:$J$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-77DA-49D5-8492-CA8A30FCA0FC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1842,30 +1956,73 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="256752831"/>
-        <c:axId val="392711839"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="256752831"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1346773967"/>
+        <c:axId val="1181161567"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1346773967"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Sentiment Per Episode</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1875,8 +2032,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1903,12 +2060,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392711839"/>
+        <c:crossAx val="1181161567"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="392711839"/>
+        <c:axId val="1181161567"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1928,20 +2088,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Total Sentiment</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1965,9 +2174,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256752831"/>
+        <c:crossAx val="1346773967"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1977,15 +2186,39 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2645,7 +2878,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2672,8 +2905,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2774,7 +3007,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2806,10 +3039,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2849,23 +3082,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2970,8 +3202,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3103,20 +3335,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3130,17 +3361,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3161,7 +3381,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3188,8 +3408,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3290,7 +3510,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3322,10 +3542,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3365,23 +3585,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3486,8 +3705,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3619,20 +3838,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3646,17 +3864,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3680,23 +3887,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>643466</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>42332</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>42332</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F6B05C5-1809-414F-B2AB-D417232C1162}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9363DA7-87E1-45A8-83BD-CFB93731B181}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3716,23 +3923,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>6048</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>182637</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>626532</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>310848</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>141514</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>42332</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9158DAA7-15D7-40A7-A34E-C734BD68986C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F5D48A4-CD6A-4DC4-BD00-6B4980382367}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3753,22 +3960,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>33866</xdr:rowOff>
+      <xdr:colOff>16933</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>169333</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>601133</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>8467</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEDB897A-F34E-4F6C-8176-1F767408AC17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB5D9DB-F2FC-4BA3-8B89-9EFEEE640CB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4086,1536 +4293,1652 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CCAD1F-C37B-4DA9-8C2A-89122FB84B64}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:B49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4">
+        <v>34.6</v>
+      </c>
+      <c r="G2" s="4">
+        <v>113</v>
+      </c>
+      <c r="H2" s="4">
+        <v>433</v>
+      </c>
+      <c r="I2" s="4">
+        <v>248</v>
+      </c>
+      <c r="J2" s="8">
+        <v>185</v>
+      </c>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
         <v>9</v>
       </c>
+      <c r="F3" s="4">
+        <v>23.2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>46</v>
+      </c>
+      <c r="H3" s="4">
+        <v>292</v>
+      </c>
+      <c r="I3" s="4">
+        <v>159</v>
+      </c>
+      <c r="J3" s="8">
+        <v>133</v>
+      </c>
+      <c r="K3" s="13"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="E4" s="4">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4">
+        <v>19.2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>47</v>
+      </c>
+      <c r="H4" s="4">
+        <v>202</v>
+      </c>
+      <c r="I4" s="4">
+        <v>122</v>
+      </c>
+      <c r="J4" s="8">
+        <v>80</v>
+      </c>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="11">
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="E5" s="4">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4">
+        <v>16.7</v>
+      </c>
+      <c r="G5" s="4">
+        <v>47</v>
+      </c>
+      <c r="H5" s="4">
+        <v>323</v>
+      </c>
+      <c r="I5" s="4">
+        <v>175</v>
+      </c>
+      <c r="J5" s="8">
+        <v>148</v>
+      </c>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D6" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G6" s="4">
+        <v>47</v>
+      </c>
+      <c r="H6" s="4">
+        <v>286</v>
+      </c>
+      <c r="I6" s="4">
+        <v>169</v>
+      </c>
+      <c r="J6" s="8">
+        <v>117</v>
+      </c>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="D7" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="E7" s="4">
+        <v>7</v>
+      </c>
+      <c r="F7" s="4">
+        <v>17.3</v>
+      </c>
+      <c r="G7" s="4">
+        <v>47</v>
+      </c>
+      <c r="H7" s="4">
+        <v>289</v>
+      </c>
+      <c r="I7" s="4">
+        <v>170</v>
+      </c>
+      <c r="J7" s="8">
+        <v>119</v>
+      </c>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="D8" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>7</v>
+      </c>
+      <c r="F8" s="4">
+        <v>15.6</v>
+      </c>
+      <c r="G8" s="4">
+        <v>46</v>
+      </c>
+      <c r="H8" s="4">
+        <v>266</v>
+      </c>
+      <c r="I8" s="4">
+        <v>180</v>
+      </c>
+      <c r="J8" s="8">
+        <v>86</v>
+      </c>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E9" s="4">
+        <v>8</v>
+      </c>
+      <c r="F9" s="4">
+        <v>18.7</v>
+      </c>
+      <c r="G9" s="4">
+        <v>46</v>
+      </c>
+      <c r="H9" s="4">
+        <v>228</v>
+      </c>
+      <c r="I9" s="4">
+        <v>133</v>
+      </c>
+      <c r="J9" s="8">
+        <v>95</v>
+      </c>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="G10" s="12">
+        <v>93</v>
+      </c>
+      <c r="H10" s="2">
+        <v>463</v>
+      </c>
+      <c r="I10" s="2">
+        <v>299</v>
+      </c>
+      <c r="J10" s="7">
+        <v>164</v>
+      </c>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D11" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E11" s="4">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="G11" s="4">
+        <v>46</v>
+      </c>
+      <c r="H11" s="4">
+        <v>199</v>
+      </c>
+      <c r="I11" s="4">
+        <v>119</v>
+      </c>
+      <c r="J11" s="8">
+        <v>80</v>
+      </c>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D12" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E12" s="4">
+        <v>6</v>
+      </c>
+      <c r="F12" s="4">
+        <v>13.7</v>
+      </c>
+      <c r="G12" s="4">
+        <v>47</v>
+      </c>
+      <c r="H12" s="4">
+        <v>222</v>
+      </c>
+      <c r="I12" s="4">
+        <v>122</v>
+      </c>
+      <c r="J12" s="8">
+        <v>100</v>
+      </c>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D13" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="E13" s="4">
+        <v>6</v>
+      </c>
+      <c r="F13" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="G13" s="4">
+        <v>47</v>
+      </c>
+      <c r="H13" s="4">
+        <v>241</v>
+      </c>
+      <c r="I13" s="4">
+        <v>135</v>
+      </c>
+      <c r="J13" s="8">
+        <v>106</v>
+      </c>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="D14" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="E14" s="4">
+        <v>6</v>
+      </c>
+      <c r="F14" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="G14" s="4">
+        <v>47</v>
+      </c>
+      <c r="H14" s="4">
+        <v>198</v>
+      </c>
+      <c r="I14" s="4">
+        <v>118</v>
+      </c>
+      <c r="J14" s="8">
+        <v>80</v>
+      </c>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="D15" s="4">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4">
+        <v>6</v>
+      </c>
+      <c r="F15" s="4">
+        <v>11.3</v>
+      </c>
+      <c r="G15" s="4">
+        <v>47</v>
+      </c>
+      <c r="H15" s="4">
+        <v>323</v>
+      </c>
+      <c r="I15" s="4">
+        <v>189</v>
+      </c>
+      <c r="J15" s="8">
+        <v>134</v>
+      </c>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>2</v>
+      </c>
+      <c r="B16" s="4">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4">
+        <v>9.4</v>
+      </c>
+      <c r="D16" s="4">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4">
+        <v>6</v>
+      </c>
+      <c r="F16" s="4">
+        <v>17.2</v>
+      </c>
+      <c r="G16" s="4">
+        <v>47</v>
+      </c>
+      <c r="H16" s="4">
+        <v>188</v>
+      </c>
+      <c r="I16" s="4">
+        <v>105</v>
+      </c>
+      <c r="J16" s="8">
+        <v>83</v>
+      </c>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="D17" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="E17" s="4">
+        <v>6</v>
+      </c>
+      <c r="F17" s="4">
+        <v>13.3</v>
+      </c>
+      <c r="G17" s="4">
+        <v>47</v>
+      </c>
+      <c r="H17" s="4">
+        <v>311</v>
+      </c>
+      <c r="I17" s="4">
+        <v>183</v>
+      </c>
+      <c r="J17" s="8">
+        <v>128</v>
+      </c>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>2</v>
+      </c>
+      <c r="B18" s="4">
+        <v>9</v>
+      </c>
+      <c r="C18" s="4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D18" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E18" s="4">
+        <v>6</v>
+      </c>
+      <c r="F18" s="4">
+        <v>12.4</v>
+      </c>
+      <c r="G18" s="4">
+        <v>46</v>
+      </c>
+      <c r="H18" s="4">
+        <v>253</v>
+      </c>
+      <c r="I18" s="4">
+        <v>136</v>
+      </c>
+      <c r="J18" s="8">
+        <v>117</v>
+      </c>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>2</v>
+      </c>
+      <c r="B19" s="4">
+        <v>10</v>
+      </c>
+      <c r="C19" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="D19" s="4">
+        <v>5</v>
+      </c>
+      <c r="E19" s="4">
+        <v>6</v>
+      </c>
+      <c r="F19" s="4">
+        <v>11.1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>47</v>
+      </c>
+      <c r="H19" s="4">
+        <v>304</v>
+      </c>
+      <c r="I19" s="4">
+        <v>168</v>
+      </c>
+      <c r="J19" s="8">
+        <v>136</v>
+      </c>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>2</v>
+      </c>
+      <c r="B20" s="4">
+        <v>11</v>
+      </c>
+      <c r="C20" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="D20" s="4">
+        <v>5</v>
+      </c>
+      <c r="E20" s="4">
+        <v>6</v>
+      </c>
+      <c r="F20" s="4">
+        <v>12.1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>47</v>
+      </c>
+      <c r="H20" s="4">
+        <v>273</v>
+      </c>
+      <c r="I20" s="4">
+        <v>167</v>
+      </c>
+      <c r="J20" s="8">
+        <v>106</v>
+      </c>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>2</v>
+      </c>
+      <c r="B21" s="4">
+        <v>12</v>
+      </c>
+      <c r="C21" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="D21" s="4">
+        <v>4</v>
+      </c>
+      <c r="E21" s="4">
+        <v>5</v>
+      </c>
+      <c r="F21" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="G21" s="4">
+        <v>46</v>
+      </c>
+      <c r="H21" s="4">
+        <v>298</v>
+      </c>
+      <c r="I21" s="4">
+        <v>163</v>
+      </c>
+      <c r="J21" s="8">
+        <v>135</v>
+      </c>
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>2</v>
+      </c>
+      <c r="B22" s="4">
+        <v>13</v>
+      </c>
+      <c r="C22" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="D22" s="4">
+        <v>6</v>
+      </c>
+      <c r="E22" s="4">
+        <v>5</v>
+      </c>
+      <c r="F22" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G22" s="4">
+        <v>46</v>
+      </c>
+      <c r="H22" s="4">
+        <v>290</v>
+      </c>
+      <c r="I22" s="4">
+        <v>172</v>
+      </c>
+      <c r="J22" s="8">
+        <v>118</v>
+      </c>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4">
+        <v>14</v>
+      </c>
+      <c r="C23" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="D23" s="4">
+        <v>6</v>
+      </c>
+      <c r="E23" s="4">
+        <v>5</v>
+      </c>
+      <c r="F23" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G23" s="4">
+        <v>46</v>
+      </c>
+      <c r="H23" s="4">
+        <v>285</v>
+      </c>
+      <c r="I23" s="4">
+        <v>145</v>
+      </c>
+      <c r="J23" s="8">
+        <v>140</v>
+      </c>
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>2</v>
+      </c>
+      <c r="B24" s="4">
+        <v>15</v>
+      </c>
+      <c r="C24" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2</v>
+      </c>
+      <c r="E24" s="4">
+        <v>5</v>
+      </c>
+      <c r="F24" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G24" s="4">
+        <v>46</v>
+      </c>
+      <c r="H24" s="4">
+        <v>304</v>
+      </c>
+      <c r="I24" s="4">
+        <v>154</v>
+      </c>
+      <c r="J24" s="8">
+        <v>150</v>
+      </c>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>2</v>
+      </c>
+      <c r="B25" s="4">
+        <v>16</v>
+      </c>
+      <c r="C25" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="D25" s="4">
+        <v>4</v>
+      </c>
+      <c r="E25" s="4">
+        <v>5</v>
+      </c>
+      <c r="F25" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="G25" s="4">
+        <v>47</v>
+      </c>
+      <c r="H25" s="4">
+        <v>318</v>
+      </c>
+      <c r="I25" s="4">
+        <v>178</v>
+      </c>
+      <c r="J25" s="8">
+        <v>140</v>
+      </c>
+      <c r="K25" s="13"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>2</v>
+      </c>
+      <c r="B26" s="4">
+        <v>17</v>
+      </c>
+      <c r="C26" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="D26" s="4">
+        <v>8</v>
+      </c>
+      <c r="E26" s="4">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G26" s="4">
+        <v>46</v>
+      </c>
+      <c r="H26" s="4">
+        <v>267</v>
+      </c>
+      <c r="I26" s="4">
+        <v>170</v>
+      </c>
+      <c r="J26" s="8">
+        <v>97</v>
+      </c>
+      <c r="K26" s="13"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>2</v>
+      </c>
+      <c r="B27" s="4">
+        <v>18</v>
+      </c>
+      <c r="C27" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>10</v>
+      </c>
+      <c r="E27" s="4">
+        <v>5</v>
+      </c>
+      <c r="F27" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G27" s="4">
+        <v>46</v>
+      </c>
+      <c r="H27" s="4">
+        <v>304</v>
+      </c>
+      <c r="I27" s="4">
+        <v>218</v>
+      </c>
+      <c r="J27" s="8">
+        <v>86</v>
+      </c>
+      <c r="K27" s="13"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>2</v>
+      </c>
+      <c r="B28" s="4">
+        <v>19</v>
+      </c>
+      <c r="C28" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="D28" s="4">
+        <v>10</v>
+      </c>
+      <c r="E28" s="4">
+        <v>5</v>
+      </c>
+      <c r="F28" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="G28" s="4">
+        <v>47</v>
+      </c>
+      <c r="H28" s="4">
+        <v>321</v>
+      </c>
+      <c r="I28" s="4">
+        <v>215</v>
+      </c>
+      <c r="J28" s="8">
+        <v>106</v>
+      </c>
+      <c r="K28" s="13"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>2</v>
+      </c>
+      <c r="B29" s="4">
+        <v>20</v>
+      </c>
+      <c r="C29" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D29" s="4">
+        <v>10</v>
+      </c>
+      <c r="E29" s="4">
+        <v>5</v>
+      </c>
+      <c r="F29" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="G29" s="4">
+        <v>46</v>
+      </c>
+      <c r="H29" s="4">
+        <v>288</v>
+      </c>
+      <c r="I29" s="4">
+        <v>168</v>
+      </c>
+      <c r="J29" s="8">
+        <v>120</v>
+      </c>
+      <c r="K29" s="13"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>2</v>
+      </c>
+      <c r="B30" s="4">
+        <v>21</v>
+      </c>
+      <c r="C30" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="D30" s="4">
+        <v>10</v>
+      </c>
+      <c r="E30" s="4">
+        <v>5</v>
+      </c>
+      <c r="F30" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="G30" s="4">
+        <v>46</v>
+      </c>
+      <c r="H30" s="4">
+        <v>260</v>
+      </c>
+      <c r="I30" s="4">
+        <v>170</v>
+      </c>
+      <c r="J30" s="8">
+        <v>90</v>
+      </c>
+      <c r="K30" s="13"/>
+    </row>
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>2</v>
+      </c>
+      <c r="B31" s="4">
+        <v>22</v>
+      </c>
+      <c r="C31" s="4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D31" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E31" s="4">
+        <v>6</v>
+      </c>
+      <c r="F31" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="G31" s="4">
+        <v>50</v>
+      </c>
+      <c r="H31" s="4">
+        <v>108</v>
+      </c>
+      <c r="I31" s="4">
+        <v>61</v>
+      </c>
+      <c r="J31" s="8">
+        <v>47</v>
+      </c>
+      <c r="K31" s="13"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>3</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D32" s="2">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="G32" s="12">
+        <v>59</v>
+      </c>
+      <c r="H32" s="2">
+        <v>356</v>
+      </c>
+      <c r="I32" s="2">
+        <v>199</v>
+      </c>
+      <c r="J32" s="7">
+        <v>157</v>
+      </c>
+      <c r="K32" s="13"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>3</v>
+      </c>
+      <c r="B33" s="4">
+        <v>2</v>
+      </c>
+      <c r="C33" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D33" s="4">
+        <v>10</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="G33" s="13">
+        <v>53</v>
+      </c>
+      <c r="H33" s="4">
+        <v>279</v>
+      </c>
+      <c r="I33" s="4">
+        <v>155</v>
+      </c>
+      <c r="J33" s="8">
+        <v>124</v>
+      </c>
+      <c r="K33" s="13"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>3</v>
+      </c>
+      <c r="B34" s="4">
+        <v>3</v>
+      </c>
+      <c r="C34" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="D34" s="4">
+        <v>10</v>
+      </c>
+      <c r="E34" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="G34" s="13">
+        <v>57</v>
+      </c>
+      <c r="H34" s="4">
+        <v>78</v>
+      </c>
+      <c r="I34" s="4">
+        <v>37</v>
+      </c>
+      <c r="J34" s="8">
+        <v>41</v>
+      </c>
+      <c r="K34" s="13"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>3</v>
+      </c>
+      <c r="B35" s="4">
+        <v>4</v>
+      </c>
+      <c r="C35" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="D35" s="4">
+        <v>10</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="G35" s="13">
+        <v>55</v>
+      </c>
+      <c r="H35" s="4">
+        <v>234</v>
+      </c>
+      <c r="I35" s="4">
+        <v>140</v>
+      </c>
+      <c r="J35" s="8">
+        <v>94</v>
+      </c>
+      <c r="K35" s="13"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>3</v>
+      </c>
+      <c r="B36" s="4">
+        <v>5</v>
+      </c>
+      <c r="C36" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D36" s="4">
+        <v>10</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0.254</v>
+      </c>
+      <c r="G36" s="13">
+        <v>56</v>
+      </c>
+      <c r="H36" s="4">
+        <v>226</v>
+      </c>
+      <c r="I36" s="4">
+        <v>123</v>
+      </c>
+      <c r="J36" s="8">
+        <v>103</v>
+      </c>
+      <c r="K36" s="13"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>3</v>
+      </c>
+      <c r="B37" s="4">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D37" s="4">
+        <v>10</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="G37" s="13">
+        <v>56</v>
+      </c>
+      <c r="H37" s="4">
+        <v>216</v>
+      </c>
+      <c r="I37" s="4">
+        <v>125</v>
+      </c>
+      <c r="J37" s="8">
+        <v>91</v>
+      </c>
+      <c r="K37" s="13"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>3</v>
+      </c>
+      <c r="B38" s="4">
+        <v>7</v>
+      </c>
+      <c r="C38" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D38" s="4">
+        <v>10</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="G38" s="13">
+        <v>56</v>
+      </c>
+      <c r="H38" s="4">
+        <v>256</v>
+      </c>
+      <c r="I38" s="4">
+        <v>136</v>
+      </c>
+      <c r="J38" s="8">
+        <v>120</v>
+      </c>
+      <c r="K38" s="13"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>3</v>
+      </c>
+      <c r="B39" s="4">
+        <v>8</v>
+      </c>
+      <c r="C39" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D39" s="4">
+        <v>10</v>
+      </c>
+      <c r="E39" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0.246</v>
+      </c>
+      <c r="G39" s="13">
+        <v>56</v>
+      </c>
+      <c r="H39" s="4">
+        <v>98</v>
+      </c>
+      <c r="I39" s="4">
+        <v>58</v>
+      </c>
+      <c r="J39" s="8">
+        <v>40</v>
+      </c>
+      <c r="K39" s="13"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>3</v>
+      </c>
+      <c r="B40" s="4">
+        <v>9</v>
+      </c>
+      <c r="C40" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="D40" s="4">
+        <v>10</v>
+      </c>
+      <c r="E40" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="G40" s="13">
+        <v>58</v>
+      </c>
+      <c r="H40" s="4">
+        <v>240</v>
+      </c>
+      <c r="I40" s="4">
+        <v>142</v>
+      </c>
+      <c r="J40" s="8">
+        <v>98</v>
+      </c>
+      <c r="K40" s="13"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>3</v>
+      </c>
+      <c r="B41" s="4">
+        <v>10</v>
+      </c>
+      <c r="C41" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D41" s="4">
+        <v>10</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="G41" s="13">
+        <v>53</v>
+      </c>
+      <c r="H41" s="4">
+        <v>284</v>
+      </c>
+      <c r="I41" s="4">
+        <v>111</v>
+      </c>
+      <c r="J41" s="8">
+        <v>173</v>
+      </c>
+      <c r="K41" s="13"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>3</v>
+      </c>
+      <c r="B42" s="4">
+        <v>11</v>
+      </c>
+      <c r="C42" s="4">
+        <v>9</v>
+      </c>
+      <c r="D42" s="4">
+        <v>10</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0.219</v>
+      </c>
+      <c r="G42" s="13">
+        <v>57</v>
+      </c>
+      <c r="H42" s="4">
+        <v>283</v>
+      </c>
+      <c r="I42" s="4">
+        <v>145</v>
+      </c>
+      <c r="J42" s="8">
+        <v>138</v>
+      </c>
+      <c r="K42" s="13"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>3</v>
+      </c>
+      <c r="B43" s="4">
+        <v>12</v>
+      </c>
+      <c r="C43" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="D43" s="4">
+        <v>9</v>
+      </c>
+      <c r="E43" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="G43" s="13">
+        <v>55</v>
+      </c>
+      <c r="H43" s="4">
+        <v>286</v>
+      </c>
+      <c r="I43" s="4">
+        <v>165</v>
+      </c>
+      <c r="J43" s="8">
+        <v>121</v>
+      </c>
+      <c r="K43" s="13"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>3</v>
+      </c>
+      <c r="B44" s="4">
+        <v>13</v>
+      </c>
+      <c r="C44" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="D44" s="4">
         <v>8.9</v>
       </c>
-      <c r="D2" s="11">
+      <c r="E44" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G44" s="13">
+        <v>59</v>
+      </c>
+      <c r="H44" s="4">
+        <v>355</v>
+      </c>
+      <c r="I44" s="4">
+        <v>211</v>
+      </c>
+      <c r="J44" s="8">
+        <v>144</v>
+      </c>
+      <c r="K44" s="13"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>3</v>
+      </c>
+      <c r="B45" s="4">
+        <v>14</v>
+      </c>
+      <c r="C45" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="D45" s="4">
         <v>10</v>
       </c>
-      <c r="E2" s="11">
-        <v>8</v>
-      </c>
-      <c r="F2" s="12">
-        <v>34.6</v>
-      </c>
-      <c r="G2" s="13">
-        <v>433</v>
-      </c>
-      <c r="H2" s="11">
-        <v>248</v>
-      </c>
-      <c r="I2" s="22">
-        <v>185</v>
-      </c>
-      <c r="J2" t="str">
-        <f>IF(H2&gt;I2,"Yes", "No")</f>
-        <v>Yes</v>
-      </c>
+      <c r="E45" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0.253</v>
+      </c>
+      <c r="G45" s="13">
+        <v>56</v>
+      </c>
+      <c r="H45" s="4">
+        <v>284</v>
+      </c>
+      <c r="I45" s="4">
+        <v>176</v>
+      </c>
+      <c r="J45" s="8">
+        <v>108</v>
+      </c>
+      <c r="K45" s="13"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>3</v>
+      </c>
+      <c r="B46" s="4">
+        <v>15</v>
+      </c>
+      <c r="C46" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D46" s="4">
+        <v>10</v>
+      </c>
+      <c r="E46" s="4">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
-        <v>8.4</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="F46" s="4">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="G46" s="13">
+        <v>55</v>
+      </c>
+      <c r="H46" s="4">
+        <v>380</v>
+      </c>
+      <c r="I46" s="4">
+        <v>204</v>
+      </c>
+      <c r="J46" s="8">
+        <v>176</v>
+      </c>
+      <c r="K46" s="13"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>3</v>
+      </c>
+      <c r="B47" s="4">
+        <v>16</v>
+      </c>
+      <c r="C47" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="D47" s="4">
         <v>10</v>
       </c>
-      <c r="E3" s="2">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3">
-        <v>23.2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>292</v>
-      </c>
-      <c r="H3" s="2">
-        <v>159</v>
-      </c>
-      <c r="I3" s="23">
-        <v>133</v>
-      </c>
-      <c r="J3" t="str">
-        <f t="shared" ref="J3:J49" si="0">IF(H3&gt;I3,"Yes", "No")</f>
-        <v>Yes</v>
-      </c>
+      <c r="E47" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="G47" s="13">
+        <v>57</v>
+      </c>
+      <c r="H47" s="4">
+        <v>206</v>
+      </c>
+      <c r="I47" s="4">
+        <v>111</v>
+      </c>
+      <c r="J47" s="8">
+        <v>95</v>
+      </c>
+      <c r="K47" s="13"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2">
-        <v>8.6</v>
-      </c>
-      <c r="E4" s="2">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3">
-        <v>19.2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>202</v>
-      </c>
-      <c r="H4" s="2">
-        <v>122</v>
-      </c>
-      <c r="I4" s="23">
+      <c r="B48" s="4">
+        <v>17</v>
+      </c>
+      <c r="C48" s="4">
+        <v>9.4</v>
+      </c>
+      <c r="D48" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="E48" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0.254</v>
+      </c>
+      <c r="G48" s="13">
+        <v>59</v>
+      </c>
+      <c r="H48" s="4">
+        <v>220</v>
+      </c>
+      <c r="I48" s="4">
+        <v>119</v>
+      </c>
+      <c r="J48" s="8">
+        <v>101</v>
+      </c>
+      <c r="K48" s="13"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="9">
+        <v>3</v>
+      </c>
+      <c r="B49" s="10">
+        <v>18</v>
+      </c>
+      <c r="C49" s="10">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D49" s="10">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E49" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="F49" s="10">
+        <v>0.24</v>
+      </c>
+      <c r="G49" s="18">
+        <v>57</v>
+      </c>
+      <c r="H49" s="10">
         <v>80</v>
       </c>
-      <c r="J4" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>8.4</v>
-      </c>
-      <c r="D5" s="2">
-        <v>8.6</v>
-      </c>
-      <c r="E5" s="2">
-        <v>7</v>
-      </c>
-      <c r="F5" s="3">
-        <v>16.7</v>
-      </c>
-      <c r="G5" s="1">
-        <v>323</v>
-      </c>
-      <c r="H5" s="2">
-        <v>175</v>
-      </c>
-      <c r="I5" s="23">
-        <v>148</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D6" s="2">
-        <v>7.1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="G6" s="1">
-        <v>286</v>
-      </c>
-      <c r="H6" s="2">
-        <v>169</v>
-      </c>
-      <c r="I6" s="23">
-        <v>117</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2">
-        <v>8.6</v>
-      </c>
-      <c r="D7" s="2">
-        <v>8.6</v>
-      </c>
-      <c r="E7" s="2">
-        <v>7</v>
-      </c>
-      <c r="F7" s="3">
-        <v>17.3</v>
-      </c>
-      <c r="G7" s="1">
-        <v>289</v>
-      </c>
-      <c r="H7" s="2">
-        <v>170</v>
-      </c>
-      <c r="I7" s="23">
-        <v>119</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2">
-        <v>8.6</v>
-      </c>
-      <c r="D8" s="2">
-        <v>7.1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>7</v>
-      </c>
-      <c r="F8" s="3">
-        <v>15.6</v>
-      </c>
-      <c r="G8" s="1">
-        <v>266</v>
-      </c>
-      <c r="H8" s="2">
-        <v>180</v>
-      </c>
-      <c r="I8" s="23">
-        <v>86</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="17">
-        <v>1</v>
-      </c>
-      <c r="B9" s="18">
-        <v>8</v>
-      </c>
-      <c r="C9" s="18">
-        <v>9.1</v>
-      </c>
-      <c r="D9" s="18">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E9" s="18">
-        <v>8</v>
-      </c>
-      <c r="F9" s="19">
-        <v>18.7</v>
-      </c>
-      <c r="G9" s="20">
-        <v>228</v>
-      </c>
-      <c r="H9" s="18">
-        <v>133</v>
-      </c>
-      <c r="I9" s="24">
-        <v>95</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <v>2</v>
-      </c>
-      <c r="B10" s="11">
-        <v>1</v>
-      </c>
-      <c r="C10" s="11">
-        <v>9</v>
-      </c>
-      <c r="D10" s="11">
-        <v>10</v>
-      </c>
-      <c r="E10" s="11">
-        <v>8</v>
-      </c>
-      <c r="F10" s="12">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="G10" s="13">
-        <v>463</v>
-      </c>
-      <c r="H10" s="11">
-        <v>299</v>
-      </c>
-      <c r="I10" s="22">
-        <v>164</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="D11" s="2">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E11" s="2">
-        <v>8</v>
-      </c>
-      <c r="F11" s="3">
-        <v>14.4</v>
-      </c>
-      <c r="G11" s="1">
-        <v>199</v>
-      </c>
-      <c r="H11" s="2">
-        <v>119</v>
-      </c>
-      <c r="I11" s="23">
-        <v>80</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D12" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E12" s="2">
-        <v>6</v>
-      </c>
-      <c r="F12" s="3">
-        <v>13.7</v>
-      </c>
-      <c r="G12" s="1">
-        <v>222</v>
-      </c>
-      <c r="H12" s="2">
-        <v>122</v>
-      </c>
-      <c r="I12" s="23">
-        <v>100</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D13" s="2">
-        <v>6.7</v>
-      </c>
-      <c r="E13" s="2">
-        <v>6</v>
-      </c>
-      <c r="F13" s="3">
-        <v>12.8</v>
-      </c>
-      <c r="G13" s="1">
-        <v>241</v>
-      </c>
-      <c r="H13" s="2">
-        <v>135</v>
-      </c>
-      <c r="I13" s="23">
-        <v>106</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="D14" s="2">
-        <v>6.7</v>
-      </c>
-      <c r="E14" s="2">
-        <v>6</v>
-      </c>
-      <c r="F14" s="3">
-        <v>11.4</v>
-      </c>
-      <c r="G14" s="1">
-        <v>198</v>
-      </c>
-      <c r="H14" s="2">
-        <v>118</v>
-      </c>
-      <c r="I14" s="23">
-        <v>80</v>
-      </c>
-      <c r="J14" t="str">
-        <f>IF(H14&gt;I14,"Yes", "No")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="15">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2">
-        <v>8.6</v>
-      </c>
-      <c r="D15" s="2">
-        <v>10</v>
-      </c>
-      <c r="E15" s="2">
-        <v>6</v>
-      </c>
-      <c r="F15" s="3">
-        <v>11.3</v>
-      </c>
-      <c r="G15" s="1">
-        <v>323</v>
-      </c>
-      <c r="H15" s="2">
-        <v>189</v>
-      </c>
-      <c r="I15" s="23">
-        <v>134</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="15">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2">
-        <v>7</v>
-      </c>
-      <c r="C16" s="2">
-        <v>9.4</v>
-      </c>
-      <c r="D16" s="2">
-        <v>10</v>
-      </c>
-      <c r="E16" s="2">
-        <v>6</v>
-      </c>
-      <c r="F16" s="3">
-        <v>17.2</v>
-      </c>
-      <c r="G16" s="1">
-        <v>188</v>
-      </c>
-      <c r="H16" s="2">
-        <v>105</v>
-      </c>
-      <c r="I16" s="23">
-        <v>83</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
-        <v>2</v>
-      </c>
-      <c r="B17" s="2">
-        <v>8</v>
-      </c>
-      <c r="C17" s="2">
-        <v>8.6</v>
-      </c>
-      <c r="D17" s="2">
-        <v>6.7</v>
-      </c>
-      <c r="E17" s="2">
-        <v>6</v>
-      </c>
-      <c r="F17" s="3">
-        <v>13.3</v>
-      </c>
-      <c r="G17" s="1">
-        <v>311</v>
-      </c>
-      <c r="H17" s="2">
-        <v>183</v>
-      </c>
-      <c r="I17" s="23">
-        <v>128</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="15">
-        <v>2</v>
-      </c>
-      <c r="B18" s="2">
-        <v>9</v>
-      </c>
-      <c r="C18" s="2">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="D18" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E18" s="2">
-        <v>6</v>
-      </c>
-      <c r="F18" s="3">
-        <v>12.4</v>
-      </c>
-      <c r="G18" s="1">
-        <v>253</v>
-      </c>
-      <c r="H18" s="2">
-        <v>136</v>
-      </c>
-      <c r="I18" s="23">
-        <v>117</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
-        <v>2</v>
-      </c>
-      <c r="B19" s="2">
-        <v>10</v>
-      </c>
-      <c r="C19" s="2">
-        <v>7.9</v>
-      </c>
-      <c r="D19" s="2">
-        <v>5</v>
-      </c>
-      <c r="E19" s="2">
-        <v>6</v>
-      </c>
-      <c r="F19" s="3">
-        <v>11.1</v>
-      </c>
-      <c r="G19" s="1">
-        <v>304</v>
-      </c>
-      <c r="H19" s="2">
-        <v>168</v>
-      </c>
-      <c r="I19" s="23">
-        <v>136</v>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="15">
-        <v>2</v>
-      </c>
-      <c r="B20" s="2">
-        <v>11</v>
-      </c>
-      <c r="C20" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="D20" s="2">
-        <v>5</v>
-      </c>
-      <c r="E20" s="2">
-        <v>6</v>
-      </c>
-      <c r="F20" s="3">
-        <v>12.1</v>
-      </c>
-      <c r="G20" s="1">
-        <v>273</v>
-      </c>
-      <c r="H20" s="2">
-        <v>167</v>
-      </c>
-      <c r="I20" s="23">
-        <v>106</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="15">
-        <v>2</v>
-      </c>
-      <c r="B21" s="2">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2">
-        <v>7.6</v>
-      </c>
-      <c r="D21" s="2">
-        <v>4</v>
-      </c>
-      <c r="E21" s="2">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3">
-        <v>10.3</v>
-      </c>
-      <c r="G21" s="1">
-        <v>298</v>
-      </c>
-      <c r="H21" s="2">
-        <v>163</v>
-      </c>
-      <c r="I21" s="23">
-        <v>135</v>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="15">
-        <v>2</v>
-      </c>
-      <c r="B22" s="2">
-        <v>13</v>
-      </c>
-      <c r="C22" s="2">
-        <v>7.8</v>
-      </c>
-      <c r="D22" s="2">
-        <v>6</v>
-      </c>
-      <c r="E22" s="2">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="G22" s="1">
-        <v>290</v>
-      </c>
-      <c r="H22" s="2">
-        <v>172</v>
-      </c>
-      <c r="I22" s="23">
-        <v>118</v>
-      </c>
-      <c r="J22" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="15">
-        <v>2</v>
-      </c>
-      <c r="B23" s="2">
-        <v>14</v>
-      </c>
-      <c r="C23" s="2">
-        <v>7.7</v>
-      </c>
-      <c r="D23" s="2">
-        <v>6</v>
-      </c>
-      <c r="E23" s="2">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="G23" s="1">
-        <v>285</v>
-      </c>
-      <c r="H23" s="2">
-        <v>145</v>
-      </c>
-      <c r="I23" s="23">
-        <v>140</v>
-      </c>
-      <c r="J23" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="15">
-        <v>2</v>
-      </c>
-      <c r="B24" s="2">
-        <v>15</v>
-      </c>
-      <c r="C24" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="D24" s="2">
-        <v>2</v>
-      </c>
-      <c r="E24" s="2">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G24" s="1">
-        <v>304</v>
-      </c>
-      <c r="H24" s="2">
-        <v>154</v>
-      </c>
-      <c r="I24" s="23">
-        <v>150</v>
-      </c>
-      <c r="J24" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="15">
-        <v>2</v>
-      </c>
-      <c r="B25" s="2">
-        <v>16</v>
-      </c>
-      <c r="C25" s="2">
-        <v>7.9</v>
-      </c>
-      <c r="D25" s="2">
-        <v>4</v>
-      </c>
-      <c r="E25" s="2">
-        <v>5</v>
-      </c>
-      <c r="F25" s="3">
-        <v>7.8</v>
-      </c>
-      <c r="G25" s="1">
-        <v>318</v>
-      </c>
-      <c r="H25" s="2">
-        <v>178</v>
-      </c>
-      <c r="I25" s="23">
-        <v>140</v>
-      </c>
-      <c r="J25" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="15">
-        <v>2</v>
-      </c>
-      <c r="B26" s="2">
-        <v>17</v>
-      </c>
-      <c r="C26" s="2">
-        <v>7.6</v>
-      </c>
-      <c r="D26" s="2">
-        <v>8</v>
-      </c>
-      <c r="E26" s="2">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="G26" s="1">
-        <v>267</v>
-      </c>
-      <c r="H26" s="2">
-        <v>170</v>
-      </c>
-      <c r="I26" s="23">
-        <v>97</v>
-      </c>
-      <c r="J26" t="str">
-        <f>IF(H26&gt;I27,"Yes", "No")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="15">
-        <v>2</v>
-      </c>
-      <c r="B27" s="2">
-        <v>18</v>
-      </c>
-      <c r="C27" s="2">
-        <v>8.1</v>
-      </c>
-      <c r="D27" s="2">
-        <v>10</v>
-      </c>
-      <c r="E27" s="2">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="G27" s="1">
-        <v>304</v>
-      </c>
-      <c r="H27" s="2">
-        <v>218</v>
-      </c>
-      <c r="I27" s="23">
-        <v>86</v>
-      </c>
-      <c r="J27" t="str">
-        <f>IF(H27&gt;I28,"Yes", "No")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="15">
-        <v>2</v>
-      </c>
-      <c r="B28" s="2">
-        <v>19</v>
-      </c>
-      <c r="C28" s="2">
-        <v>8.1</v>
-      </c>
-      <c r="D28" s="2">
-        <v>10</v>
-      </c>
-      <c r="E28" s="2">
-        <v>5</v>
-      </c>
-      <c r="F28" s="3">
-        <v>7.9</v>
-      </c>
-      <c r="G28" s="1">
-        <v>321</v>
-      </c>
-      <c r="H28" s="2">
-        <v>215</v>
-      </c>
-      <c r="I28" s="23">
-        <v>106</v>
-      </c>
-      <c r="J28" t="str">
-        <f>IF(H28&gt;I29,"Yes", "No")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="15">
-        <v>2</v>
-      </c>
-      <c r="B29" s="2">
-        <v>20</v>
-      </c>
-      <c r="C29" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D29" s="2">
-        <v>10</v>
-      </c>
-      <c r="E29" s="2">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3">
-        <v>7.4</v>
-      </c>
-      <c r="G29" s="1">
-        <v>288</v>
-      </c>
-      <c r="H29" s="2">
-        <v>168</v>
-      </c>
-      <c r="I29" s="23">
-        <v>120</v>
-      </c>
-      <c r="J29" t="str">
-        <f>IF(H29&gt;I30,"Yes", "No")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="15">
-        <v>2</v>
-      </c>
-      <c r="B30" s="2">
-        <v>21</v>
-      </c>
-      <c r="C30" s="2">
-        <v>8.6</v>
-      </c>
-      <c r="D30" s="2">
-        <v>10</v>
-      </c>
-      <c r="E30" s="2">
-        <v>5</v>
-      </c>
-      <c r="F30" s="3">
-        <v>10.4</v>
-      </c>
-      <c r="G30" s="1">
-        <v>260</v>
-      </c>
-      <c r="H30" s="2">
-        <v>170</v>
-      </c>
-      <c r="I30" s="23">
-        <v>90</v>
-      </c>
-      <c r="J30" t="str">
-        <f t="shared" ref="J30:J31" si="1">IF(H30&gt;I31,"Yes", "No")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="17">
-        <v>2</v>
-      </c>
-      <c r="B31" s="18">
-        <v>22</v>
-      </c>
-      <c r="C31" s="18">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="D31" s="18">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E31" s="18">
-        <v>6</v>
-      </c>
-      <c r="F31" s="19">
-        <v>10.4</v>
-      </c>
-      <c r="G31" s="20">
-        <v>108</v>
-      </c>
-      <c r="H31" s="18">
-        <v>61</v>
-      </c>
-      <c r="I31" s="24">
-        <v>47</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
-        <v>3</v>
-      </c>
-      <c r="B32" s="11">
-        <v>1</v>
-      </c>
-      <c r="C32" s="11">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="D32" s="11">
-        <v>10</v>
-      </c>
-      <c r="E32" s="11">
-        <v>2.9</v>
-      </c>
-      <c r="F32" s="12">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="G32" s="28"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="14"/>
-      <c r="J32" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="15">
-        <v>3</v>
-      </c>
-      <c r="B33" s="2">
-        <v>2</v>
-      </c>
-      <c r="C33" s="2">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="D33" s="2">
-        <v>10</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="G33" s="26"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="16"/>
-      <c r="J33" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="15">
-        <v>3</v>
-      </c>
-      <c r="B34" s="2">
-        <v>3</v>
-      </c>
-      <c r="C34" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="D34" s="2">
-        <v>10</v>
-      </c>
-      <c r="E34" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="G34" s="26"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="16"/>
-      <c r="J34" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="15">
-        <v>3</v>
-      </c>
-      <c r="B35" s="2">
-        <v>4</v>
-      </c>
-      <c r="C35" s="2">
-        <v>8.6</v>
-      </c>
-      <c r="D35" s="2">
-        <v>10</v>
-      </c>
-      <c r="E35" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="G35" s="26"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="16"/>
-      <c r="J35" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="15">
-        <v>3</v>
-      </c>
-      <c r="B36" s="2">
-        <v>5</v>
-      </c>
-      <c r="C36" s="2">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D36" s="2">
-        <v>10</v>
-      </c>
-      <c r="E36" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0.254</v>
-      </c>
-      <c r="G36" s="26"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="16"/>
-      <c r="J36" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="15">
-        <v>3</v>
-      </c>
-      <c r="B37" s="2">
-        <v>6</v>
-      </c>
-      <c r="C37" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D37" s="2">
-        <v>10</v>
-      </c>
-      <c r="E37" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0.27</v>
-      </c>
-      <c r="G37" s="26"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="16"/>
-      <c r="J37" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="15">
-        <v>3</v>
-      </c>
-      <c r="B38" s="2">
-        <v>7</v>
-      </c>
-      <c r="C38" s="2">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="D38" s="2">
-        <v>10</v>
-      </c>
-      <c r="E38" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="G38" s="26"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="16"/>
-      <c r="J38" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="15">
-        <v>3</v>
-      </c>
-      <c r="B39" s="2">
-        <v>8</v>
-      </c>
-      <c r="C39" s="2">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="D39" s="2">
-        <v>10</v>
-      </c>
-      <c r="E39" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0.246</v>
-      </c>
-      <c r="G39" s="26"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="16"/>
-      <c r="J39" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="15">
-        <v>3</v>
-      </c>
-      <c r="B40" s="2">
-        <v>9</v>
-      </c>
-      <c r="C40" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="D40" s="2">
-        <v>10</v>
-      </c>
-      <c r="E40" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="G40" s="26"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="16"/>
-      <c r="J40" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="15">
-        <v>3</v>
-      </c>
-      <c r="B41" s="2">
-        <v>10</v>
-      </c>
-      <c r="C41" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D41" s="2">
-        <v>10</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="G41" s="26"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="16"/>
-      <c r="J41" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="15">
-        <v>3</v>
-      </c>
-      <c r="B42" s="2">
-        <v>11</v>
-      </c>
-      <c r="C42" s="2">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2">
-        <v>10</v>
-      </c>
-      <c r="E42" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0.219</v>
-      </c>
-      <c r="G42" s="26"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="16"/>
-      <c r="J42" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="15">
-        <v>3</v>
-      </c>
-      <c r="B43" s="2">
-        <v>12</v>
-      </c>
-      <c r="C43" s="2">
-        <v>7.8</v>
-      </c>
-      <c r="D43" s="2">
-        <v>9</v>
-      </c>
-      <c r="E43" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0.24</v>
-      </c>
-      <c r="G43" s="26"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="16"/>
-      <c r="J43" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="15">
-        <v>3</v>
-      </c>
-      <c r="B44" s="2">
-        <v>13</v>
-      </c>
-      <c r="C44" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="D44" s="2">
-        <v>8.9</v>
-      </c>
-      <c r="E44" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G44" s="26"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="16"/>
-      <c r="J44" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="15">
-        <v>3</v>
-      </c>
-      <c r="B45" s="2">
-        <v>14</v>
-      </c>
-      <c r="C45" s="2">
-        <v>9.1</v>
-      </c>
-      <c r="D45" s="2">
-        <v>10</v>
-      </c>
-      <c r="E45" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0.253</v>
-      </c>
-      <c r="G45" s="26"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="16"/>
-      <c r="J45" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="15">
-        <v>3</v>
-      </c>
-      <c r="B46" s="2">
-        <v>15</v>
-      </c>
-      <c r="C46" s="2">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="D46" s="2">
-        <v>10</v>
-      </c>
-      <c r="E46" s="2">
-        <v>2</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="G46" s="26"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="16"/>
-      <c r="J46" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="15">
-        <v>3</v>
-      </c>
-      <c r="B47" s="2">
-        <v>16</v>
-      </c>
-      <c r="C47" s="2">
-        <v>9.6</v>
-      </c>
-      <c r="D47" s="2">
-        <v>10</v>
-      </c>
-      <c r="E47" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="G47" s="26"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="16"/>
-      <c r="J47" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="15">
-        <v>3</v>
-      </c>
-      <c r="B48" s="2">
-        <v>17</v>
-      </c>
-      <c r="C48" s="2">
-        <v>9.4</v>
-      </c>
-      <c r="D48" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="E48" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0.254</v>
-      </c>
-      <c r="G48" s="26"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="16"/>
-      <c r="J48" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="17">
-        <v>3</v>
-      </c>
-      <c r="B49" s="18">
-        <v>18</v>
-      </c>
-      <c r="C49" s="18">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="D49" s="18">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E49" s="18">
-        <v>2.6</v>
-      </c>
-      <c r="F49" s="19">
-        <v>0.24</v>
-      </c>
-      <c r="G49" s="30"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="21"/>
-      <c r="J49" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
-      </c>
+      <c r="I49" s="10">
+        <v>30</v>
+      </c>
+      <c r="J49" s="11">
+        <v>50</v>
+      </c>
+      <c r="K49" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="K1">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/dissertation/twinpeaks-sa/#twinPeaksData.xlsx
+++ b/dissertation/twinpeaks-sa/#twinPeaksData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\uniWork\dissertation\twinpeaks-sa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB6CE61-F1DF-42A3-987E-8A02DFEA1BAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1650AE3D-A8DB-47CD-80FF-53259A7FFB1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8604" yWindow="2580" windowWidth="17280" windowHeight="8964" xr2:uid="{A2F98D7D-73BE-49C7-AAAC-B193CEB33A64}"/>
+    <workbookView xWindow="5760" yWindow="2496" windowWidth="17280" windowHeight="8964" xr2:uid="{A2F98D7D-73BE-49C7-AAAC-B193CEB33A64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>imdb-rating</t>
   </si>
@@ -74,9 +76,6 @@
   <si>
     <t>bing-neg</t>
   </si>
-  <si>
-    <t>double-check</t>
-  </si>
 </sst>
 </file>
 
@@ -113,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -258,6 +257,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -315,15 +325,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -336,11 +343,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -399,29 +413,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -430,51 +421,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -828,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CCAD1F-C37B-4DA9-8C2A-89122FB84B64}">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:AQ49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -849,11 +800,11 @@
     <col min="11" max="11" width="9.109375" style="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" style="3" customWidth="1"/>
     <col min="15" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -890,14 +841,41 @@
       <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="N1" s="26"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
+    </row>
+    <row r="2" spans="1:43" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -928,21 +906,47 @@
       <c r="J2" s="4">
         <v>185</v>
       </c>
-      <c r="K2" s="21">
+      <c r="K2" s="20">
         <v>379</v>
       </c>
       <c r="L2" s="2">
         <v>231</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="4">
         <v>148</v>
       </c>
-      <c r="N2" s="22">
-        <f>L2+M2</f>
-        <v>379</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="27"/>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -973,21 +977,47 @@
       <c r="J3" s="4">
         <v>133</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="20">
         <v>270</v>
       </c>
       <c r="L3" s="2">
         <v>154</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="4">
         <v>116</v>
       </c>
-      <c r="N3" s="22">
-        <f t="shared" ref="N3:N49" si="0">L3+M3</f>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="27"/>
+      <c r="AO3" s="27"/>
+      <c r="AP3" s="27"/>
+      <c r="AQ3" s="27"/>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1018,21 +1048,47 @@
       <c r="J4" s="4">
         <v>80</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="20">
         <v>168</v>
       </c>
       <c r="L4" s="2">
         <v>98</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="4">
         <v>70</v>
       </c>
-      <c r="N4" s="22">
-        <f t="shared" si="0"/>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="27"/>
+      <c r="AI4" s="27"/>
+      <c r="AJ4" s="27"/>
+      <c r="AK4" s="27"/>
+      <c r="AL4" s="27"/>
+      <c r="AM4" s="27"/>
+      <c r="AN4" s="27"/>
+      <c r="AO4" s="27"/>
+      <c r="AP4" s="27"/>
+      <c r="AQ4" s="27"/>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1063,21 +1119,47 @@
       <c r="J5" s="4">
         <v>148</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="20">
         <v>289</v>
       </c>
       <c r="L5" s="2">
         <v>155</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="4">
         <v>134</v>
       </c>
-      <c r="N5" s="22">
-        <f t="shared" si="0"/>
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="27"/>
+      <c r="AI5" s="27"/>
+      <c r="AJ5" s="27"/>
+      <c r="AK5" s="27"/>
+      <c r="AL5" s="27"/>
+      <c r="AM5" s="27"/>
+      <c r="AN5" s="27"/>
+      <c r="AO5" s="27"/>
+      <c r="AP5" s="27"/>
+      <c r="AQ5" s="27"/>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1108,21 +1190,47 @@
       <c r="J6" s="4">
         <v>117</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="20">
         <v>248</v>
       </c>
       <c r="L6" s="2">
         <v>142</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="4">
         <v>106</v>
       </c>
-      <c r="N6" s="22">
-        <f t="shared" si="0"/>
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="27"/>
+      <c r="AH6" s="27"/>
+      <c r="AI6" s="27"/>
+      <c r="AJ6" s="27"/>
+      <c r="AK6" s="27"/>
+      <c r="AL6" s="27"/>
+      <c r="AM6" s="27"/>
+      <c r="AN6" s="27"/>
+      <c r="AO6" s="27"/>
+      <c r="AP6" s="27"/>
+      <c r="AQ6" s="27"/>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1153,21 +1261,47 @@
       <c r="J7" s="4">
         <v>119</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="20">
         <v>251</v>
       </c>
       <c r="L7" s="2">
         <v>138</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="4">
         <v>113</v>
       </c>
-      <c r="N7" s="22">
-        <f t="shared" si="0"/>
-        <v>251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="27"/>
+      <c r="AI7" s="27"/>
+      <c r="AJ7" s="27"/>
+      <c r="AK7" s="27"/>
+      <c r="AL7" s="27"/>
+      <c r="AM7" s="27"/>
+      <c r="AN7" s="27"/>
+      <c r="AO7" s="27"/>
+      <c r="AP7" s="27"/>
+      <c r="AQ7" s="27"/>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1198,21 +1332,47 @@
       <c r="J8" s="4">
         <v>86</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="20">
         <v>209</v>
       </c>
       <c r="L8" s="2">
         <v>155</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="4">
         <v>54</v>
       </c>
-      <c r="N8" s="22">
-        <f t="shared" si="0"/>
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="27"/>
+      <c r="AH8" s="27"/>
+      <c r="AI8" s="27"/>
+      <c r="AJ8" s="27"/>
+      <c r="AK8" s="27"/>
+      <c r="AL8" s="27"/>
+      <c r="AM8" s="27"/>
+      <c r="AN8" s="27"/>
+      <c r="AO8" s="27"/>
+      <c r="AP8" s="27"/>
+      <c r="AQ8" s="27"/>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -1243,22 +1403,48 @@
       <c r="J9" s="7">
         <v>95</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="21">
         <v>178</v>
       </c>
       <c r="L9" s="6">
         <v>94</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="7">
         <v>84</v>
       </c>
-      <c r="N9" s="24">
-        <f t="shared" si="0"/>
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="26">
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="27"/>
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="27"/>
+      <c r="AM9" s="27"/>
+      <c r="AN9" s="27"/>
+      <c r="AO9" s="27"/>
+      <c r="AP9" s="27"/>
+      <c r="AQ9" s="27"/>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A10" s="23">
         <v>2</v>
       </c>
       <c r="B10" s="19">
@@ -1276,7 +1462,7 @@
       <c r="F10" s="19">
         <v>19.100000000000001</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="25">
         <v>93</v>
       </c>
       <c r="H10" s="19">
@@ -1285,7 +1471,7 @@
       <c r="I10" s="19">
         <v>299</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="24">
         <v>164</v>
       </c>
       <c r="K10" s="18">
@@ -1294,15 +1480,41 @@
       <c r="L10" s="19">
         <v>268</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="24">
         <v>174</v>
       </c>
-      <c r="N10" s="20">
-        <f t="shared" si="0"/>
-        <v>442</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="27"/>
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="27"/>
+      <c r="AM10" s="27"/>
+      <c r="AN10" s="27"/>
+      <c r="AO10" s="27"/>
+      <c r="AP10" s="27"/>
+      <c r="AQ10" s="27"/>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -1333,21 +1545,47 @@
       <c r="J11" s="4">
         <v>80</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="20">
         <v>187</v>
       </c>
       <c r="L11" s="2">
         <v>106</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="4">
         <v>81</v>
       </c>
-      <c r="N11" s="22">
-        <f t="shared" si="0"/>
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="27"/>
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="27"/>
+      <c r="AM11" s="27"/>
+      <c r="AN11" s="27"/>
+      <c r="AO11" s="27"/>
+      <c r="AP11" s="27"/>
+      <c r="AQ11" s="27"/>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -1378,21 +1616,47 @@
       <c r="J12" s="4">
         <v>100</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="20">
         <v>168</v>
       </c>
       <c r="L12" s="2">
         <v>91</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="4">
         <v>77</v>
       </c>
-      <c r="N12" s="22">
-        <f t="shared" si="0"/>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="27"/>
+      <c r="AH12" s="27"/>
+      <c r="AI12" s="27"/>
+      <c r="AJ12" s="27"/>
+      <c r="AK12" s="27"/>
+      <c r="AL12" s="27"/>
+      <c r="AM12" s="27"/>
+      <c r="AN12" s="27"/>
+      <c r="AO12" s="27"/>
+      <c r="AP12" s="27"/>
+      <c r="AQ12" s="27"/>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -1423,21 +1687,47 @@
       <c r="J13" s="4">
         <v>106</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="20">
         <v>211</v>
       </c>
       <c r="L13" s="2">
         <v>117</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="4">
         <v>94</v>
       </c>
-      <c r="N13" s="22">
-        <f t="shared" si="0"/>
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="27"/>
+      <c r="AI13" s="27"/>
+      <c r="AJ13" s="27"/>
+      <c r="AK13" s="27"/>
+      <c r="AL13" s="27"/>
+      <c r="AM13" s="27"/>
+      <c r="AN13" s="27"/>
+      <c r="AO13" s="27"/>
+      <c r="AP13" s="27"/>
+      <c r="AQ13" s="27"/>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -1468,21 +1758,47 @@
       <c r="J14" s="4">
         <v>80</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="20">
         <v>180</v>
       </c>
       <c r="L14" s="2">
         <v>105</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="4">
         <v>75</v>
       </c>
-      <c r="N14" s="22">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="27"/>
+      <c r="AJ14" s="27"/>
+      <c r="AK14" s="27"/>
+      <c r="AL14" s="27"/>
+      <c r="AM14" s="27"/>
+      <c r="AN14" s="27"/>
+      <c r="AO14" s="27"/>
+      <c r="AP14" s="27"/>
+      <c r="AQ14" s="27"/>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -1513,21 +1829,47 @@
       <c r="J15" s="4">
         <v>134</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="20">
         <v>290</v>
       </c>
       <c r="L15" s="2">
         <v>174</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="4">
         <v>116</v>
       </c>
-      <c r="N15" s="22">
-        <f t="shared" si="0"/>
-        <v>290</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="27"/>
+      <c r="AK15" s="27"/>
+      <c r="AL15" s="27"/>
+      <c r="AM15" s="27"/>
+      <c r="AN15" s="27"/>
+      <c r="AO15" s="27"/>
+      <c r="AP15" s="27"/>
+      <c r="AQ15" s="27"/>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -1558,21 +1900,47 @@
       <c r="J16" s="4">
         <v>83</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="20">
         <v>143</v>
       </c>
       <c r="L16" s="2">
         <v>82</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="4">
         <v>61</v>
       </c>
-      <c r="N16" s="22">
-        <f t="shared" si="0"/>
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="27"/>
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="27"/>
+      <c r="AM16" s="27"/>
+      <c r="AN16" s="27"/>
+      <c r="AO16" s="27"/>
+      <c r="AP16" s="27"/>
+      <c r="AQ16" s="27"/>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -1603,21 +1971,47 @@
       <c r="J17" s="4">
         <v>128</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="20">
         <v>258</v>
       </c>
       <c r="L17" s="2">
         <v>149</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="4">
         <v>109</v>
       </c>
-      <c r="N17" s="22">
-        <f t="shared" si="0"/>
-        <v>258</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="27"/>
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="27"/>
+      <c r="AM17" s="27"/>
+      <c r="AN17" s="27"/>
+      <c r="AO17" s="27"/>
+      <c r="AP17" s="27"/>
+      <c r="AQ17" s="27"/>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -1648,21 +2042,47 @@
       <c r="J18" s="4">
         <v>117</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="20">
         <v>219</v>
       </c>
       <c r="L18" s="2">
         <v>105</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="4">
         <v>114</v>
       </c>
-      <c r="N18" s="22">
-        <f t="shared" si="0"/>
-        <v>219</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="27"/>
+      <c r="AJ18" s="27"/>
+      <c r="AK18" s="27"/>
+      <c r="AL18" s="27"/>
+      <c r="AM18" s="27"/>
+      <c r="AN18" s="27"/>
+      <c r="AO18" s="27"/>
+      <c r="AP18" s="27"/>
+      <c r="AQ18" s="27"/>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -1693,21 +2113,47 @@
       <c r="J19" s="4">
         <v>136</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="20">
         <v>268</v>
       </c>
       <c r="L19" s="2">
         <v>140</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="4">
         <v>128</v>
       </c>
-      <c r="N19" s="22">
-        <f t="shared" si="0"/>
-        <v>268</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27"/>
+      <c r="AH19" s="27"/>
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="27"/>
+      <c r="AK19" s="27"/>
+      <c r="AL19" s="27"/>
+      <c r="AM19" s="27"/>
+      <c r="AN19" s="27"/>
+      <c r="AO19" s="27"/>
+      <c r="AP19" s="27"/>
+      <c r="AQ19" s="27"/>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -1738,21 +2184,47 @@
       <c r="J20" s="4">
         <v>106</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="20">
         <v>295</v>
       </c>
       <c r="L20" s="2">
         <v>176</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="4">
         <v>119</v>
       </c>
-      <c r="N20" s="22">
-        <f t="shared" si="0"/>
-        <v>295</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="27"/>
+      <c r="AH20" s="27"/>
+      <c r="AI20" s="27"/>
+      <c r="AJ20" s="27"/>
+      <c r="AK20" s="27"/>
+      <c r="AL20" s="27"/>
+      <c r="AM20" s="27"/>
+      <c r="AN20" s="27"/>
+      <c r="AO20" s="27"/>
+      <c r="AP20" s="27"/>
+      <c r="AQ20" s="27"/>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -1783,21 +2255,47 @@
       <c r="J21" s="4">
         <v>135</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="20">
         <v>272</v>
       </c>
       <c r="L21" s="2">
         <v>139</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="4">
         <v>133</v>
       </c>
-      <c r="N21" s="22">
-        <f t="shared" si="0"/>
-        <v>272</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="27"/>
+      <c r="AJ21" s="27"/>
+      <c r="AK21" s="27"/>
+      <c r="AL21" s="27"/>
+      <c r="AM21" s="27"/>
+      <c r="AN21" s="27"/>
+      <c r="AO21" s="27"/>
+      <c r="AP21" s="27"/>
+      <c r="AQ21" s="27"/>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -1828,21 +2326,47 @@
       <c r="J22" s="4">
         <v>118</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K22" s="20">
         <v>253</v>
       </c>
       <c r="L22" s="2">
         <v>142</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="4">
         <v>111</v>
       </c>
-      <c r="N22" s="22">
-        <f t="shared" si="0"/>
-        <v>253</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="27"/>
+      <c r="AJ22" s="27"/>
+      <c r="AK22" s="27"/>
+      <c r="AL22" s="27"/>
+      <c r="AM22" s="27"/>
+      <c r="AN22" s="27"/>
+      <c r="AO22" s="27"/>
+      <c r="AP22" s="27"/>
+      <c r="AQ22" s="27"/>
+    </row>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -1873,21 +2397,47 @@
       <c r="J23" s="4">
         <v>140</v>
       </c>
-      <c r="K23" s="21">
+      <c r="K23" s="20">
         <v>226</v>
       </c>
       <c r="L23" s="2">
         <v>126</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="4">
         <v>100</v>
       </c>
-      <c r="N23" s="22">
-        <f t="shared" si="0"/>
-        <v>226</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="27"/>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="27"/>
+      <c r="AM23" s="27"/>
+      <c r="AN23" s="27"/>
+      <c r="AO23" s="27"/>
+      <c r="AP23" s="27"/>
+      <c r="AQ23" s="27"/>
+    </row>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -1918,21 +2468,47 @@
       <c r="J24" s="4">
         <v>150</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K24" s="20">
         <v>259</v>
       </c>
       <c r="L24" s="2">
         <v>141</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="4">
         <v>118</v>
       </c>
-      <c r="N24" s="22">
-        <f t="shared" si="0"/>
-        <v>259</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="27"/>
+      <c r="AG24" s="27"/>
+      <c r="AH24" s="27"/>
+      <c r="AI24" s="27"/>
+      <c r="AJ24" s="27"/>
+      <c r="AK24" s="27"/>
+      <c r="AL24" s="27"/>
+      <c r="AM24" s="27"/>
+      <c r="AN24" s="27"/>
+      <c r="AO24" s="27"/>
+      <c r="AP24" s="27"/>
+      <c r="AQ24" s="27"/>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -1963,21 +2539,47 @@
       <c r="J25" s="4">
         <v>140</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K25" s="20">
         <v>283</v>
       </c>
       <c r="L25" s="2">
         <v>147</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="4">
         <v>136</v>
       </c>
-      <c r="N25" s="22">
-        <f t="shared" si="0"/>
-        <v>283</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="27"/>
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="27"/>
+      <c r="AL25" s="27"/>
+      <c r="AM25" s="27"/>
+      <c r="AN25" s="27"/>
+      <c r="AO25" s="27"/>
+      <c r="AP25" s="27"/>
+      <c r="AQ25" s="27"/>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>2</v>
       </c>
@@ -2008,21 +2610,47 @@
       <c r="J26" s="4">
         <v>97</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K26" s="20">
         <v>274</v>
       </c>
       <c r="L26" s="2">
         <v>180</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="4">
         <v>94</v>
       </c>
-      <c r="N26" s="22">
-        <f t="shared" si="0"/>
-        <v>274</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="27"/>
+      <c r="AG26" s="27"/>
+      <c r="AH26" s="27"/>
+      <c r="AI26" s="27"/>
+      <c r="AJ26" s="27"/>
+      <c r="AK26" s="27"/>
+      <c r="AL26" s="27"/>
+      <c r="AM26" s="27"/>
+      <c r="AN26" s="27"/>
+      <c r="AO26" s="27"/>
+      <c r="AP26" s="27"/>
+      <c r="AQ26" s="27"/>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -2053,21 +2681,47 @@
       <c r="J27" s="4">
         <v>86</v>
       </c>
-      <c r="K27" s="21">
+      <c r="K27" s="20">
         <v>270</v>
       </c>
       <c r="L27" s="2">
         <v>188</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27" s="4">
         <v>82</v>
       </c>
-      <c r="N27" s="22">
-        <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="27"/>
+      <c r="AI27" s="27"/>
+      <c r="AJ27" s="27"/>
+      <c r="AK27" s="27"/>
+      <c r="AL27" s="27"/>
+      <c r="AM27" s="27"/>
+      <c r="AN27" s="27"/>
+      <c r="AO27" s="27"/>
+      <c r="AP27" s="27"/>
+      <c r="AQ27" s="27"/>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -2098,21 +2752,47 @@
       <c r="J28" s="4">
         <v>106</v>
       </c>
-      <c r="K28" s="21">
+      <c r="K28" s="20">
         <v>327</v>
       </c>
       <c r="L28" s="2">
         <v>212</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28" s="4">
         <v>115</v>
       </c>
-      <c r="N28" s="22">
-        <f t="shared" si="0"/>
-        <v>327</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="27"/>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="27"/>
+      <c r="AH28" s="27"/>
+      <c r="AI28" s="27"/>
+      <c r="AJ28" s="27"/>
+      <c r="AK28" s="27"/>
+      <c r="AL28" s="27"/>
+      <c r="AM28" s="27"/>
+      <c r="AN28" s="27"/>
+      <c r="AO28" s="27"/>
+      <c r="AP28" s="27"/>
+      <c r="AQ28" s="27"/>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -2143,21 +2823,47 @@
       <c r="J29" s="4">
         <v>120</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K29" s="20">
         <v>268</v>
       </c>
       <c r="L29" s="2">
         <v>144</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="4">
         <v>124</v>
       </c>
-      <c r="N29" s="22">
-        <f t="shared" si="0"/>
-        <v>268</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="27"/>
+      <c r="AG29" s="27"/>
+      <c r="AH29" s="27"/>
+      <c r="AI29" s="27"/>
+      <c r="AJ29" s="27"/>
+      <c r="AK29" s="27"/>
+      <c r="AL29" s="27"/>
+      <c r="AM29" s="27"/>
+      <c r="AN29" s="27"/>
+      <c r="AO29" s="27"/>
+      <c r="AP29" s="27"/>
+      <c r="AQ29" s="27"/>
+    </row>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -2188,21 +2894,47 @@
       <c r="J30" s="4">
         <v>90</v>
       </c>
-      <c r="K30" s="21">
+      <c r="K30" s="20">
         <v>275</v>
       </c>
       <c r="L30" s="2">
         <v>175</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="4">
         <v>100</v>
       </c>
-      <c r="N30" s="22">
-        <f t="shared" si="0"/>
-        <v>275</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="27"/>
+      <c r="AC30" s="27"/>
+      <c r="AD30" s="27"/>
+      <c r="AE30" s="27"/>
+      <c r="AF30" s="27"/>
+      <c r="AG30" s="27"/>
+      <c r="AH30" s="27"/>
+      <c r="AI30" s="27"/>
+      <c r="AJ30" s="27"/>
+      <c r="AK30" s="27"/>
+      <c r="AL30" s="27"/>
+      <c r="AM30" s="27"/>
+      <c r="AN30" s="27"/>
+      <c r="AO30" s="27"/>
+      <c r="AP30" s="27"/>
+      <c r="AQ30" s="27"/>
+    </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>2</v>
       </c>
@@ -2233,21 +2965,47 @@
       <c r="J31" s="7">
         <v>47</v>
       </c>
-      <c r="K31" s="23">
+      <c r="K31" s="21">
         <v>75</v>
       </c>
       <c r="L31" s="6">
         <v>37</v>
       </c>
-      <c r="M31" s="6">
+      <c r="M31" s="7">
         <v>38</v>
       </c>
-      <c r="N31" s="24">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="27"/>
+      <c r="AE31" s="27"/>
+      <c r="AF31" s="27"/>
+      <c r="AG31" s="27"/>
+      <c r="AH31" s="27"/>
+      <c r="AI31" s="27"/>
+      <c r="AJ31" s="27"/>
+      <c r="AK31" s="27"/>
+      <c r="AL31" s="27"/>
+      <c r="AM31" s="27"/>
+      <c r="AN31" s="27"/>
+      <c r="AO31" s="27"/>
+      <c r="AP31" s="27"/>
+      <c r="AQ31" s="27"/>
+    </row>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>3</v>
       </c>
@@ -2266,7 +3024,7 @@
       <c r="F32" s="2">
         <v>0.50600000000000001</v>
       </c>
-      <c r="G32" s="25">
+      <c r="G32" s="22">
         <v>59</v>
       </c>
       <c r="H32" s="2">
@@ -2278,21 +3036,47 @@
       <c r="J32" s="4">
         <v>157</v>
       </c>
-      <c r="K32" s="21">
+      <c r="K32" s="20">
         <v>312</v>
       </c>
       <c r="L32" s="2">
         <v>124</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="4">
         <v>188</v>
       </c>
-      <c r="N32" s="22">
-        <f t="shared" si="0"/>
-        <v>312</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="27"/>
+      <c r="AC32" s="27"/>
+      <c r="AD32" s="27"/>
+      <c r="AE32" s="27"/>
+      <c r="AF32" s="27"/>
+      <c r="AG32" s="27"/>
+      <c r="AH32" s="27"/>
+      <c r="AI32" s="27"/>
+      <c r="AJ32" s="27"/>
+      <c r="AK32" s="27"/>
+      <c r="AL32" s="27"/>
+      <c r="AM32" s="27"/>
+      <c r="AN32" s="27"/>
+      <c r="AO32" s="27"/>
+      <c r="AP32" s="27"/>
+      <c r="AQ32" s="27"/>
+    </row>
+    <row r="33" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>3</v>
       </c>
@@ -2323,21 +3107,47 @@
       <c r="J33" s="4">
         <v>124</v>
       </c>
-      <c r="K33" s="21">
+      <c r="K33" s="20">
         <v>185</v>
       </c>
       <c r="L33" s="2">
         <v>103</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="4">
         <v>82</v>
       </c>
-      <c r="N33" s="22">
-        <f t="shared" si="0"/>
-        <v>185</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="27"/>
+      <c r="V33" s="27"/>
+      <c r="W33" s="27"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="27"/>
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="27"/>
+      <c r="AC33" s="27"/>
+      <c r="AD33" s="27"/>
+      <c r="AE33" s="27"/>
+      <c r="AF33" s="27"/>
+      <c r="AG33" s="27"/>
+      <c r="AH33" s="27"/>
+      <c r="AI33" s="27"/>
+      <c r="AJ33" s="27"/>
+      <c r="AK33" s="27"/>
+      <c r="AL33" s="27"/>
+      <c r="AM33" s="27"/>
+      <c r="AN33" s="27"/>
+      <c r="AO33" s="27"/>
+      <c r="AP33" s="27"/>
+      <c r="AQ33" s="27"/>
+    </row>
+    <row r="34" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>3</v>
       </c>
@@ -2368,21 +3178,47 @@
       <c r="J34" s="4">
         <v>41</v>
       </c>
-      <c r="K34" s="21">
+      <c r="K34" s="20">
         <v>64</v>
       </c>
       <c r="L34" s="2">
         <v>33</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M34" s="4">
         <v>31</v>
       </c>
-      <c r="N34" s="22">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="27"/>
+      <c r="W34" s="27"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="27"/>
+      <c r="AC34" s="27"/>
+      <c r="AD34" s="27"/>
+      <c r="AE34" s="27"/>
+      <c r="AF34" s="27"/>
+      <c r="AG34" s="27"/>
+      <c r="AH34" s="27"/>
+      <c r="AI34" s="27"/>
+      <c r="AJ34" s="27"/>
+      <c r="AK34" s="27"/>
+      <c r="AL34" s="27"/>
+      <c r="AM34" s="27"/>
+      <c r="AN34" s="27"/>
+      <c r="AO34" s="27"/>
+      <c r="AP34" s="27"/>
+      <c r="AQ34" s="27"/>
+    </row>
+    <row r="35" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>3</v>
       </c>
@@ -2413,21 +3249,47 @@
       <c r="J35" s="4">
         <v>94</v>
       </c>
-      <c r="K35" s="21">
+      <c r="K35" s="20">
         <v>199</v>
       </c>
       <c r="L35" s="2">
         <v>131</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M35" s="4">
         <v>68</v>
       </c>
-      <c r="N35" s="22">
-        <f t="shared" si="0"/>
-        <v>199</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="27"/>
+      <c r="AC35" s="27"/>
+      <c r="AD35" s="27"/>
+      <c r="AE35" s="27"/>
+      <c r="AF35" s="27"/>
+      <c r="AG35" s="27"/>
+      <c r="AH35" s="27"/>
+      <c r="AI35" s="27"/>
+      <c r="AJ35" s="27"/>
+      <c r="AK35" s="27"/>
+      <c r="AL35" s="27"/>
+      <c r="AM35" s="27"/>
+      <c r="AN35" s="27"/>
+      <c r="AO35" s="27"/>
+      <c r="AP35" s="27"/>
+      <c r="AQ35" s="27"/>
+    </row>
+    <row r="36" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>3</v>
       </c>
@@ -2458,21 +3320,47 @@
       <c r="J36" s="4">
         <v>103</v>
       </c>
-      <c r="K36" s="21">
+      <c r="K36" s="20">
         <v>211</v>
       </c>
       <c r="L36" s="2">
         <v>109</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M36" s="4">
         <v>102</v>
       </c>
-      <c r="N36" s="22">
-        <f t="shared" si="0"/>
-        <v>211</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="27"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="27"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="27"/>
+      <c r="AB36" s="27"/>
+      <c r="AC36" s="27"/>
+      <c r="AD36" s="27"/>
+      <c r="AE36" s="27"/>
+      <c r="AF36" s="27"/>
+      <c r="AG36" s="27"/>
+      <c r="AH36" s="27"/>
+      <c r="AI36" s="27"/>
+      <c r="AJ36" s="27"/>
+      <c r="AK36" s="27"/>
+      <c r="AL36" s="27"/>
+      <c r="AM36" s="27"/>
+      <c r="AN36" s="27"/>
+      <c r="AO36" s="27"/>
+      <c r="AP36" s="27"/>
+      <c r="AQ36" s="27"/>
+    </row>
+    <row r="37" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>3</v>
       </c>
@@ -2503,21 +3391,47 @@
       <c r="J37" s="4">
         <v>91</v>
       </c>
-      <c r="K37" s="21">
+      <c r="K37" s="20">
         <v>194</v>
       </c>
       <c r="L37" s="2">
         <v>113</v>
       </c>
-      <c r="M37" s="2">
+      <c r="M37" s="4">
         <v>81</v>
       </c>
-      <c r="N37" s="22">
-        <f t="shared" si="0"/>
-        <v>194</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="27"/>
+      <c r="W37" s="27"/>
+      <c r="X37" s="27"/>
+      <c r="Y37" s="27"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="27"/>
+      <c r="AB37" s="27"/>
+      <c r="AC37" s="27"/>
+      <c r="AD37" s="27"/>
+      <c r="AE37" s="27"/>
+      <c r="AF37" s="27"/>
+      <c r="AG37" s="27"/>
+      <c r="AH37" s="27"/>
+      <c r="AI37" s="27"/>
+      <c r="AJ37" s="27"/>
+      <c r="AK37" s="27"/>
+      <c r="AL37" s="27"/>
+      <c r="AM37" s="27"/>
+      <c r="AN37" s="27"/>
+      <c r="AO37" s="27"/>
+      <c r="AP37" s="27"/>
+      <c r="AQ37" s="27"/>
+    </row>
+    <row r="38" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>3</v>
       </c>
@@ -2548,21 +3462,47 @@
       <c r="J38" s="4">
         <v>120</v>
       </c>
-      <c r="K38" s="21">
+      <c r="K38" s="20">
         <v>202</v>
       </c>
       <c r="L38" s="2">
         <v>108</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M38" s="4">
         <v>94</v>
       </c>
-      <c r="N38" s="22">
-        <f t="shared" si="0"/>
-        <v>202</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="27"/>
+      <c r="V38" s="27"/>
+      <c r="W38" s="27"/>
+      <c r="X38" s="27"/>
+      <c r="Y38" s="27"/>
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="27"/>
+      <c r="AB38" s="27"/>
+      <c r="AC38" s="27"/>
+      <c r="AD38" s="27"/>
+      <c r="AE38" s="27"/>
+      <c r="AF38" s="27"/>
+      <c r="AG38" s="27"/>
+      <c r="AH38" s="27"/>
+      <c r="AI38" s="27"/>
+      <c r="AJ38" s="27"/>
+      <c r="AK38" s="27"/>
+      <c r="AL38" s="27"/>
+      <c r="AM38" s="27"/>
+      <c r="AN38" s="27"/>
+      <c r="AO38" s="27"/>
+      <c r="AP38" s="27"/>
+      <c r="AQ38" s="27"/>
+    </row>
+    <row r="39" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>3</v>
       </c>
@@ -2593,21 +3533,47 @@
       <c r="J39" s="4">
         <v>40</v>
       </c>
-      <c r="K39" s="21">
+      <c r="K39" s="20">
         <v>137</v>
       </c>
       <c r="L39" s="2">
         <v>52</v>
       </c>
-      <c r="M39" s="2">
+      <c r="M39" s="4">
         <v>85</v>
       </c>
-      <c r="N39" s="22">
-        <f t="shared" si="0"/>
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="27"/>
+      <c r="V39" s="27"/>
+      <c r="W39" s="27"/>
+      <c r="X39" s="27"/>
+      <c r="Y39" s="27"/>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="27"/>
+      <c r="AB39" s="27"/>
+      <c r="AC39" s="27"/>
+      <c r="AD39" s="27"/>
+      <c r="AE39" s="27"/>
+      <c r="AF39" s="27"/>
+      <c r="AG39" s="27"/>
+      <c r="AH39" s="27"/>
+      <c r="AI39" s="27"/>
+      <c r="AJ39" s="27"/>
+      <c r="AK39" s="27"/>
+      <c r="AL39" s="27"/>
+      <c r="AM39" s="27"/>
+      <c r="AN39" s="27"/>
+      <c r="AO39" s="27"/>
+      <c r="AP39" s="27"/>
+      <c r="AQ39" s="27"/>
+    </row>
+    <row r="40" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>3</v>
       </c>
@@ -2638,21 +3604,47 @@
       <c r="J40" s="4">
         <v>98</v>
       </c>
-      <c r="K40" s="21">
+      <c r="K40" s="20">
         <v>191</v>
       </c>
       <c r="L40" s="2">
         <v>104</v>
       </c>
-      <c r="M40" s="2">
+      <c r="M40" s="4">
         <v>87</v>
       </c>
-      <c r="N40" s="22">
-        <f t="shared" si="0"/>
-        <v>191</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="27"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="27"/>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="27"/>
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="27"/>
+      <c r="AB40" s="27"/>
+      <c r="AC40" s="27"/>
+      <c r="AD40" s="27"/>
+      <c r="AE40" s="27"/>
+      <c r="AF40" s="27"/>
+      <c r="AG40" s="27"/>
+      <c r="AH40" s="27"/>
+      <c r="AI40" s="27"/>
+      <c r="AJ40" s="27"/>
+      <c r="AK40" s="27"/>
+      <c r="AL40" s="27"/>
+      <c r="AM40" s="27"/>
+      <c r="AN40" s="27"/>
+      <c r="AO40" s="27"/>
+      <c r="AP40" s="27"/>
+      <c r="AQ40" s="27"/>
+    </row>
+    <row r="41" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>3</v>
       </c>
@@ -2683,21 +3675,47 @@
       <c r="J41" s="4">
         <v>173</v>
       </c>
-      <c r="K41" s="21">
+      <c r="K41" s="20">
         <v>237</v>
       </c>
       <c r="L41" s="2">
         <v>92</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M41" s="4">
         <v>145</v>
       </c>
-      <c r="N41" s="22">
-        <f t="shared" si="0"/>
-        <v>237</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="27"/>
+      <c r="U41" s="27"/>
+      <c r="V41" s="27"/>
+      <c r="W41" s="27"/>
+      <c r="X41" s="27"/>
+      <c r="Y41" s="27"/>
+      <c r="Z41" s="27"/>
+      <c r="AA41" s="27"/>
+      <c r="AB41" s="27"/>
+      <c r="AC41" s="27"/>
+      <c r="AD41" s="27"/>
+      <c r="AE41" s="27"/>
+      <c r="AF41" s="27"/>
+      <c r="AG41" s="27"/>
+      <c r="AH41" s="27"/>
+      <c r="AI41" s="27"/>
+      <c r="AJ41" s="27"/>
+      <c r="AK41" s="27"/>
+      <c r="AL41" s="27"/>
+      <c r="AM41" s="27"/>
+      <c r="AN41" s="27"/>
+      <c r="AO41" s="27"/>
+      <c r="AP41" s="27"/>
+      <c r="AQ41" s="27"/>
+    </row>
+    <row r="42" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>3</v>
       </c>
@@ -2728,21 +3746,47 @@
       <c r="J42" s="4">
         <v>138</v>
       </c>
-      <c r="K42" s="21">
+      <c r="K42" s="20">
         <v>223</v>
       </c>
       <c r="L42" s="2">
         <v>104</v>
       </c>
-      <c r="M42" s="2">
+      <c r="M42" s="4">
         <v>119</v>
       </c>
-      <c r="N42" s="22">
-        <f t="shared" si="0"/>
-        <v>223</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="27"/>
+      <c r="U42" s="27"/>
+      <c r="V42" s="27"/>
+      <c r="W42" s="27"/>
+      <c r="X42" s="27"/>
+      <c r="Y42" s="27"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="27"/>
+      <c r="AB42" s="27"/>
+      <c r="AC42" s="27"/>
+      <c r="AD42" s="27"/>
+      <c r="AE42" s="27"/>
+      <c r="AF42" s="27"/>
+      <c r="AG42" s="27"/>
+      <c r="AH42" s="27"/>
+      <c r="AI42" s="27"/>
+      <c r="AJ42" s="27"/>
+      <c r="AK42" s="27"/>
+      <c r="AL42" s="27"/>
+      <c r="AM42" s="27"/>
+      <c r="AN42" s="27"/>
+      <c r="AO42" s="27"/>
+      <c r="AP42" s="27"/>
+      <c r="AQ42" s="27"/>
+    </row>
+    <row r="43" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>3</v>
       </c>
@@ -2773,21 +3817,47 @@
       <c r="J43" s="4">
         <v>121</v>
       </c>
-      <c r="K43" s="21">
+      <c r="K43" s="20">
         <v>202</v>
       </c>
       <c r="L43" s="2">
         <v>93</v>
       </c>
-      <c r="M43" s="2">
+      <c r="M43" s="4">
         <v>109</v>
       </c>
-      <c r="N43" s="22">
-        <f t="shared" si="0"/>
-        <v>202</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="27"/>
+      <c r="X43" s="27"/>
+      <c r="Y43" s="27"/>
+      <c r="Z43" s="27"/>
+      <c r="AA43" s="27"/>
+      <c r="AB43" s="27"/>
+      <c r="AC43" s="27"/>
+      <c r="AD43" s="27"/>
+      <c r="AE43" s="27"/>
+      <c r="AF43" s="27"/>
+      <c r="AG43" s="27"/>
+      <c r="AH43" s="27"/>
+      <c r="AI43" s="27"/>
+      <c r="AJ43" s="27"/>
+      <c r="AK43" s="27"/>
+      <c r="AL43" s="27"/>
+      <c r="AM43" s="27"/>
+      <c r="AN43" s="27"/>
+      <c r="AO43" s="27"/>
+      <c r="AP43" s="27"/>
+      <c r="AQ43" s="27"/>
+    </row>
+    <row r="44" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>3</v>
       </c>
@@ -2818,21 +3888,47 @@
       <c r="J44" s="4">
         <v>144</v>
       </c>
-      <c r="K44" s="21">
+      <c r="K44" s="20">
         <v>298</v>
       </c>
       <c r="L44" s="2">
         <v>149</v>
       </c>
-      <c r="M44" s="2">
+      <c r="M44" s="4">
         <v>149</v>
       </c>
-      <c r="N44" s="22">
-        <f t="shared" si="0"/>
-        <v>298</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="27"/>
+      <c r="V44" s="27"/>
+      <c r="W44" s="27"/>
+      <c r="X44" s="27"/>
+      <c r="Y44" s="27"/>
+      <c r="Z44" s="27"/>
+      <c r="AA44" s="27"/>
+      <c r="AB44" s="27"/>
+      <c r="AC44" s="27"/>
+      <c r="AD44" s="27"/>
+      <c r="AE44" s="27"/>
+      <c r="AF44" s="27"/>
+      <c r="AG44" s="27"/>
+      <c r="AH44" s="27"/>
+      <c r="AI44" s="27"/>
+      <c r="AJ44" s="27"/>
+      <c r="AK44" s="27"/>
+      <c r="AL44" s="27"/>
+      <c r="AM44" s="27"/>
+      <c r="AN44" s="27"/>
+      <c r="AO44" s="27"/>
+      <c r="AP44" s="27"/>
+      <c r="AQ44" s="27"/>
+    </row>
+    <row r="45" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>3</v>
       </c>
@@ -2863,21 +3959,47 @@
       <c r="J45" s="4">
         <v>108</v>
       </c>
-      <c r="K45" s="21">
+      <c r="K45" s="20">
         <v>294</v>
       </c>
       <c r="L45" s="2">
         <v>115</v>
       </c>
-      <c r="M45" s="2">
+      <c r="M45" s="4">
         <v>179</v>
       </c>
-      <c r="N45" s="22">
-        <f t="shared" si="0"/>
-        <v>294</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="27"/>
+      <c r="U45" s="27"/>
+      <c r="V45" s="27"/>
+      <c r="W45" s="27"/>
+      <c r="X45" s="27"/>
+      <c r="Y45" s="27"/>
+      <c r="Z45" s="27"/>
+      <c r="AA45" s="27"/>
+      <c r="AB45" s="27"/>
+      <c r="AC45" s="27"/>
+      <c r="AD45" s="27"/>
+      <c r="AE45" s="27"/>
+      <c r="AF45" s="27"/>
+      <c r="AG45" s="27"/>
+      <c r="AH45" s="27"/>
+      <c r="AI45" s="27"/>
+      <c r="AJ45" s="27"/>
+      <c r="AK45" s="27"/>
+      <c r="AL45" s="27"/>
+      <c r="AM45" s="27"/>
+      <c r="AN45" s="27"/>
+      <c r="AO45" s="27"/>
+      <c r="AP45" s="27"/>
+      <c r="AQ45" s="27"/>
+    </row>
+    <row r="46" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>3</v>
       </c>
@@ -2908,21 +4030,47 @@
       <c r="J46" s="4">
         <v>176</v>
       </c>
-      <c r="K46" s="21">
+      <c r="K46" s="20">
         <v>321</v>
       </c>
       <c r="L46" s="2">
         <v>143</v>
       </c>
-      <c r="M46" s="2">
+      <c r="M46" s="4">
         <v>178</v>
       </c>
-      <c r="N46" s="22">
-        <f t="shared" si="0"/>
-        <v>321</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="27"/>
+      <c r="T46" s="27"/>
+      <c r="U46" s="27"/>
+      <c r="V46" s="27"/>
+      <c r="W46" s="27"/>
+      <c r="X46" s="27"/>
+      <c r="Y46" s="27"/>
+      <c r="Z46" s="27"/>
+      <c r="AA46" s="27"/>
+      <c r="AB46" s="27"/>
+      <c r="AC46" s="27"/>
+      <c r="AD46" s="27"/>
+      <c r="AE46" s="27"/>
+      <c r="AF46" s="27"/>
+      <c r="AG46" s="27"/>
+      <c r="AH46" s="27"/>
+      <c r="AI46" s="27"/>
+      <c r="AJ46" s="27"/>
+      <c r="AK46" s="27"/>
+      <c r="AL46" s="27"/>
+      <c r="AM46" s="27"/>
+      <c r="AN46" s="27"/>
+      <c r="AO46" s="27"/>
+      <c r="AP46" s="27"/>
+      <c r="AQ46" s="27"/>
+    </row>
+    <row r="47" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>3</v>
       </c>
@@ -2953,21 +4101,47 @@
       <c r="J47" s="4">
         <v>95</v>
       </c>
-      <c r="K47" s="21">
+      <c r="K47" s="20">
         <v>177</v>
       </c>
       <c r="L47" s="2">
         <v>87</v>
       </c>
-      <c r="M47" s="2">
+      <c r="M47" s="4">
         <v>90</v>
       </c>
-      <c r="N47" s="22">
-        <f t="shared" si="0"/>
-        <v>177</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="27"/>
+      <c r="T47" s="27"/>
+      <c r="U47" s="27"/>
+      <c r="V47" s="27"/>
+      <c r="W47" s="27"/>
+      <c r="X47" s="27"/>
+      <c r="Y47" s="27"/>
+      <c r="Z47" s="27"/>
+      <c r="AA47" s="27"/>
+      <c r="AB47" s="27"/>
+      <c r="AC47" s="27"/>
+      <c r="AD47" s="27"/>
+      <c r="AE47" s="27"/>
+      <c r="AF47" s="27"/>
+      <c r="AG47" s="27"/>
+      <c r="AH47" s="27"/>
+      <c r="AI47" s="27"/>
+      <c r="AJ47" s="27"/>
+      <c r="AK47" s="27"/>
+      <c r="AL47" s="27"/>
+      <c r="AM47" s="27"/>
+      <c r="AN47" s="27"/>
+      <c r="AO47" s="27"/>
+      <c r="AP47" s="27"/>
+      <c r="AQ47" s="27"/>
+    </row>
+    <row r="48" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>3</v>
       </c>
@@ -2998,21 +4172,47 @@
       <c r="J48" s="4">
         <v>101</v>
       </c>
-      <c r="K48" s="21">
+      <c r="K48" s="20">
         <v>280</v>
       </c>
       <c r="L48" s="2">
         <v>53</v>
       </c>
-      <c r="M48" s="2">
+      <c r="M48" s="4">
         <v>227</v>
       </c>
-      <c r="N48" s="22">
-        <f t="shared" si="0"/>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="27"/>
+      <c r="T48" s="27"/>
+      <c r="U48" s="27"/>
+      <c r="V48" s="27"/>
+      <c r="W48" s="27"/>
+      <c r="X48" s="27"/>
+      <c r="Y48" s="27"/>
+      <c r="Z48" s="27"/>
+      <c r="AA48" s="27"/>
+      <c r="AB48" s="27"/>
+      <c r="AC48" s="27"/>
+      <c r="AD48" s="27"/>
+      <c r="AE48" s="27"/>
+      <c r="AF48" s="27"/>
+      <c r="AG48" s="27"/>
+      <c r="AH48" s="27"/>
+      <c r="AI48" s="27"/>
+      <c r="AJ48" s="27"/>
+      <c r="AK48" s="27"/>
+      <c r="AL48" s="27"/>
+      <c r="AM48" s="27"/>
+      <c r="AN48" s="27"/>
+      <c r="AO48" s="27"/>
+      <c r="AP48" s="27"/>
+      <c r="AQ48" s="27"/>
+    </row>
+    <row r="49" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>3</v>
       </c>
@@ -3043,42 +4243,48 @@
       <c r="J49" s="7">
         <v>50</v>
       </c>
-      <c r="K49" s="23">
+      <c r="K49" s="21">
         <v>78</v>
       </c>
       <c r="L49" s="6">
         <v>21</v>
       </c>
-      <c r="M49" s="6">
+      <c r="M49" s="7">
         <v>57</v>
       </c>
-      <c r="N49" s="24">
-        <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="27"/>
+      <c r="V49" s="27"/>
+      <c r="W49" s="27"/>
+      <c r="X49" s="27"/>
+      <c r="Y49" s="27"/>
+      <c r="Z49" s="27"/>
+      <c r="AA49" s="27"/>
+      <c r="AB49" s="27"/>
+      <c r="AC49" s="27"/>
+      <c r="AD49" s="27"/>
+      <c r="AE49" s="27"/>
+      <c r="AF49" s="27"/>
+      <c r="AG49" s="27"/>
+      <c r="AH49" s="27"/>
+      <c r="AI49" s="27"/>
+      <c r="AJ49" s="27"/>
+      <c r="AK49" s="27"/>
+      <c r="AL49" s="27"/>
+      <c r="AM49" s="27"/>
+      <c r="AN49" s="27"/>
+      <c r="AO49" s="27"/>
+      <c r="AP49" s="27"/>
+      <c r="AQ49" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="K1:M1">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2">
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1048576 K1:K1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K9 N2:N9">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10:K31 N10:N31">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32:K49 N32:N49">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/dissertation/twinpeaks-sa/#twinPeaksData.xlsx
+++ b/dissertation/twinpeaks-sa/#twinPeaksData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\uniWork\dissertation\twinpeaks-sa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1650AE3D-A8DB-47CD-80FF-53259A7FFB1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D545DB09-E980-4AC4-9C74-855C5487C94C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2496" windowWidth="17280" windowHeight="8964" xr2:uid="{A2F98D7D-73BE-49C7-AAAC-B193CEB33A64}"/>
+    <workbookView xWindow="-10428" yWindow="3876" windowWidth="17280" windowHeight="8964" xr2:uid="{A2F98D7D-73BE-49C7-AAAC-B193CEB33A64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>imdb-rating</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>episode</t>
-  </si>
-  <si>
-    <t>rotten-tomatoes</t>
   </si>
   <si>
     <t>rt-critics</t>
@@ -75,6 +72,36 @@
   </si>
   <si>
     <t>bing-neg</t>
+  </si>
+  <si>
+    <t>rt-rating</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>IMDB</t>
+  </si>
+  <si>
+    <t>RT</t>
   </si>
 </sst>
 </file>
@@ -272,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -350,126 +377,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -781,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CCAD1F-C37B-4DA9-8C2A-89122FB84B64}">
   <dimension ref="A1:AQ49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -790,7 +707,7 @@
     <col min="1" max="1" width="7.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
@@ -815,40 +732,50 @@
         <v>0</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="16" t="s">
+      <c r="L1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
+      <c r="N1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="S1" s="27"/>
       <c r="T1" s="27"/>
       <c r="U1" s="27"/>
@@ -897,7 +824,7 @@
       <c r="G2" s="2">
         <v>113</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>433</v>
       </c>
       <c r="I2" s="2">
@@ -915,11 +842,25 @@
       <c r="M2" s="4">
         <v>148</v>
       </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
+      <c r="N2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="30">
+        <f>SUM(C2:C9)</f>
+        <v>69.2</v>
+      </c>
+      <c r="P2" s="31">
+        <f>O2/8</f>
+        <v>8.65</v>
+      </c>
+      <c r="Q2" s="30">
+        <f>MEDIAN(C2:C9)</f>
+        <v>8.6</v>
+      </c>
+      <c r="R2" s="30">
+        <f>MODE(C2:C9)</f>
+        <v>8.4</v>
+      </c>
       <c r="S2" s="27"/>
       <c r="T2" s="27"/>
       <c r="U2" s="27"/>
@@ -968,7 +909,7 @@
       <c r="G3" s="2">
         <v>46</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>292</v>
       </c>
       <c r="I3" s="2">
@@ -986,11 +927,25 @@
       <c r="M3" s="4">
         <v>116</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
+      <c r="N3" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="30">
+        <f>SUM(C10:C31)</f>
+        <v>182.5</v>
+      </c>
+      <c r="P3" s="31">
+        <f>O3/22</f>
+        <v>8.295454545454545</v>
+      </c>
+      <c r="Q3" s="30">
+        <f>MEDIAN(C10:C31)</f>
+        <v>8.25</v>
+      </c>
+      <c r="R3" s="30">
+        <f>MODE(C10:C31)</f>
+        <v>8.6</v>
+      </c>
       <c r="S3" s="27"/>
       <c r="T3" s="27"/>
       <c r="U3" s="27"/>
@@ -1039,7 +994,7 @@
       <c r="G4" s="2">
         <v>47</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>202</v>
       </c>
       <c r="I4" s="2">
@@ -1057,11 +1012,25 @@
       <c r="M4" s="4">
         <v>70</v>
       </c>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
+      <c r="N4" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="30">
+        <f>SUM(C32:C49)</f>
+        <v>156.5</v>
+      </c>
+      <c r="P4" s="31">
+        <f>O4/18</f>
+        <v>8.6944444444444446</v>
+      </c>
+      <c r="Q4" s="30">
+        <f>MEDIAN(C32:C49)</f>
+        <v>8.75</v>
+      </c>
+      <c r="R4" s="30">
+        <f>MODE(C32:C49)</f>
+        <v>8.8000000000000007</v>
+      </c>
       <c r="S4" s="27"/>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
@@ -1110,7 +1079,7 @@
       <c r="G5" s="2">
         <v>47</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>323</v>
       </c>
       <c r="I5" s="2">
@@ -1128,11 +1097,25 @@
       <c r="M5" s="4">
         <v>134</v>
       </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
+      <c r="N5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="30">
+        <f>SUM(O2:O4)</f>
+        <v>408.2</v>
+      </c>
+      <c r="P5" s="30">
+        <f t="shared" ref="P5:R5" si="0">SUM(P2:P4)</f>
+        <v>25.639898989898988</v>
+      </c>
+      <c r="Q5" s="30">
+        <f t="shared" si="0"/>
+        <v>25.6</v>
+      </c>
+      <c r="R5" s="30">
+        <f t="shared" si="0"/>
+        <v>25.8</v>
+      </c>
       <c r="S5" s="27"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
@@ -1181,7 +1164,7 @@
       <c r="G6" s="2">
         <v>47</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>286</v>
       </c>
       <c r="I6" s="2">
@@ -1230,7 +1213,7 @@
       <c r="AP6" s="27"/>
       <c r="AQ6" s="27"/>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1252,7 +1235,7 @@
       <c r="G7" s="2">
         <v>47</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>289</v>
       </c>
       <c r="I7" s="2">
@@ -1270,11 +1253,21 @@
       <c r="M7" s="4">
         <v>113</v>
       </c>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
+      <c r="N7" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="R7" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="S7" s="27"/>
       <c r="T7" s="27"/>
       <c r="U7" s="27"/>
@@ -1301,7 +1294,7 @@
       <c r="AP7" s="27"/>
       <c r="AQ7" s="27"/>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1323,7 +1316,7 @@
       <c r="G8" s="2">
         <v>46</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>266</v>
       </c>
       <c r="I8" s="2">
@@ -1341,11 +1334,25 @@
       <c r="M8" s="4">
         <v>54</v>
       </c>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
+      <c r="N8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="30">
+        <f>SUM(D8:D15)</f>
+        <v>66.400000000000006</v>
+      </c>
+      <c r="P8" s="31">
+        <f>O8/8</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Q8" s="30">
+        <f>MEDIAN(D8:D15)</f>
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="R8" s="30">
+        <f>MODE(D8:D15)</f>
+        <v>8.8000000000000007</v>
+      </c>
       <c r="S8" s="27"/>
       <c r="T8" s="27"/>
       <c r="U8" s="27"/>
@@ -1394,7 +1401,7 @@
       <c r="G9" s="6">
         <v>46</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>228</v>
       </c>
       <c r="I9" s="6">
@@ -1412,11 +1419,25 @@
       <c r="M9" s="7">
         <v>84</v>
       </c>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
+      <c r="N9" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="30">
+        <f>SUM(D16:D37)</f>
+        <v>173.3</v>
+      </c>
+      <c r="P9" s="31">
+        <f>O9/22</f>
+        <v>7.8772727272727279</v>
+      </c>
+      <c r="Q9" s="30">
+        <f>MEDIAN(D16:D37)</f>
+        <v>9.15</v>
+      </c>
+      <c r="R9" s="30">
+        <f>MODE(D16:D37)</f>
+        <v>10</v>
+      </c>
       <c r="S9" s="27"/>
       <c r="T9" s="27"/>
       <c r="U9" s="27"/>
@@ -1465,7 +1486,7 @@
       <c r="G10" s="25">
         <v>93</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="23">
         <v>463</v>
       </c>
       <c r="I10" s="19">
@@ -1483,11 +1504,25 @@
       <c r="M10" s="24">
         <v>174</v>
       </c>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
+      <c r="N10" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="30">
+        <f>SUM(D38:D55)</f>
+        <v>116.2</v>
+      </c>
+      <c r="P10" s="31">
+        <f>O10/18</f>
+        <v>6.4555555555555557</v>
+      </c>
+      <c r="Q10" s="30">
+        <f>MEDIAN(D38:D55)</f>
+        <v>10</v>
+      </c>
+      <c r="R10" s="30">
+        <f>MODE(D38:D55)</f>
+        <v>10</v>
+      </c>
       <c r="S10" s="27"/>
       <c r="T10" s="27"/>
       <c r="U10" s="27"/>
@@ -1536,7 +1571,7 @@
       <c r="G11" s="2">
         <v>46</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>199</v>
       </c>
       <c r="I11" s="2">
@@ -1554,11 +1589,25 @@
       <c r="M11" s="4">
         <v>81</v>
       </c>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
+      <c r="N11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="30">
+        <f>SUM(O8:O10)</f>
+        <v>355.90000000000003</v>
+      </c>
+      <c r="P11" s="30">
+        <f t="shared" ref="P11" si="1">SUM(P8:P10)</f>
+        <v>22.632828282828285</v>
+      </c>
+      <c r="Q11" s="30">
+        <f t="shared" ref="Q11" si="2">SUM(Q8:Q10)</f>
+        <v>27.700000000000003</v>
+      </c>
+      <c r="R11" s="30">
+        <f t="shared" ref="R11" si="3">SUM(R8:R10)</f>
+        <v>28.8</v>
+      </c>
       <c r="S11" s="27"/>
       <c r="T11" s="27"/>
       <c r="U11" s="27"/>
@@ -1607,7 +1656,7 @@
       <c r="G12" s="2">
         <v>47</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>222</v>
       </c>
       <c r="I12" s="2">
@@ -1678,7 +1727,7 @@
       <c r="G13" s="2">
         <v>47</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>241</v>
       </c>
       <c r="I13" s="2">
@@ -1749,7 +1798,7 @@
       <c r="G14" s="2">
         <v>47</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>198</v>
       </c>
       <c r="I14" s="2">
@@ -1820,7 +1869,7 @@
       <c r="G15" s="2">
         <v>47</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>323</v>
       </c>
       <c r="I15" s="2">
@@ -1891,7 +1940,7 @@
       <c r="G16" s="2">
         <v>47</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>188</v>
       </c>
       <c r="I16" s="2">
@@ -1962,7 +2011,7 @@
       <c r="G17" s="2">
         <v>47</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>311</v>
       </c>
       <c r="I17" s="2">
@@ -2033,7 +2082,7 @@
       <c r="G18" s="2">
         <v>46</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>253</v>
       </c>
       <c r="I18" s="2">
@@ -2104,7 +2153,7 @@
       <c r="G19" s="2">
         <v>47</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>304</v>
       </c>
       <c r="I19" s="2">
@@ -2175,7 +2224,7 @@
       <c r="G20" s="2">
         <v>47</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>273</v>
       </c>
       <c r="I20" s="2">
@@ -2246,7 +2295,7 @@
       <c r="G21" s="2">
         <v>46</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>298</v>
       </c>
       <c r="I21" s="2">
@@ -2317,7 +2366,7 @@
       <c r="G22" s="2">
         <v>46</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <v>290</v>
       </c>
       <c r="I22" s="2">
@@ -2388,7 +2437,7 @@
       <c r="G23" s="2">
         <v>46</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="1">
         <v>285</v>
       </c>
       <c r="I23" s="2">
@@ -2459,7 +2508,7 @@
       <c r="G24" s="2">
         <v>46</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <v>304</v>
       </c>
       <c r="I24" s="2">
@@ -2530,7 +2579,7 @@
       <c r="G25" s="2">
         <v>47</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="1">
         <v>318</v>
       </c>
       <c r="I25" s="2">
@@ -2601,7 +2650,7 @@
       <c r="G26" s="2">
         <v>46</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <v>267</v>
       </c>
       <c r="I26" s="2">
@@ -2672,7 +2721,7 @@
       <c r="G27" s="2">
         <v>46</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="1">
         <v>304</v>
       </c>
       <c r="I27" s="2">
@@ -2743,7 +2792,7 @@
       <c r="G28" s="2">
         <v>47</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="1">
         <v>321</v>
       </c>
       <c r="I28" s="2">
@@ -2814,7 +2863,7 @@
       <c r="G29" s="2">
         <v>46</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="1">
         <v>288</v>
       </c>
       <c r="I29" s="2">
@@ -2885,7 +2934,7 @@
       <c r="G30" s="2">
         <v>46</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="1">
         <v>260</v>
       </c>
       <c r="I30" s="2">
@@ -2956,7 +3005,7 @@
       <c r="G31" s="6">
         <v>50</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="5">
         <v>108</v>
       </c>
       <c r="I31" s="6">
@@ -3027,7 +3076,7 @@
       <c r="G32" s="22">
         <v>59</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="1">
         <v>356</v>
       </c>
       <c r="I32" s="2">
@@ -3098,7 +3147,7 @@
       <c r="G33" s="8">
         <v>53</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="1">
         <v>279</v>
       </c>
       <c r="I33" s="2">
@@ -3169,7 +3218,7 @@
       <c r="G34" s="8">
         <v>57</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="1">
         <v>78</v>
       </c>
       <c r="I34" s="2">
@@ -3240,7 +3289,7 @@
       <c r="G35" s="8">
         <v>55</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="1">
         <v>234</v>
       </c>
       <c r="I35" s="2">
@@ -3311,7 +3360,7 @@
       <c r="G36" s="8">
         <v>56</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="1">
         <v>226</v>
       </c>
       <c r="I36" s="2">
@@ -3382,7 +3431,7 @@
       <c r="G37" s="8">
         <v>56</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="1">
         <v>216</v>
       </c>
       <c r="I37" s="2">
@@ -3453,7 +3502,7 @@
       <c r="G38" s="8">
         <v>56</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="1">
         <v>256</v>
       </c>
       <c r="I38" s="2">
@@ -3524,7 +3573,7 @@
       <c r="G39" s="8">
         <v>56</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="1">
         <v>98</v>
       </c>
       <c r="I39" s="2">
@@ -3595,7 +3644,7 @@
       <c r="G40" s="8">
         <v>58</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="1">
         <v>240</v>
       </c>
       <c r="I40" s="2">
@@ -3666,7 +3715,7 @@
       <c r="G41" s="8">
         <v>53</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="1">
         <v>284</v>
       </c>
       <c r="I41" s="2">
@@ -3737,7 +3786,7 @@
       <c r="G42" s="8">
         <v>57</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="1">
         <v>283</v>
       </c>
       <c r="I42" s="2">
@@ -3808,7 +3857,7 @@
       <c r="G43" s="8">
         <v>55</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="1">
         <v>286</v>
       </c>
       <c r="I43" s="2">
@@ -3879,7 +3928,7 @@
       <c r="G44" s="8">
         <v>59</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="1">
         <v>355</v>
       </c>
       <c r="I44" s="2">
@@ -3950,7 +3999,7 @@
       <c r="G45" s="8">
         <v>56</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="1">
         <v>284</v>
       </c>
       <c r="I45" s="2">
@@ -4021,7 +4070,7 @@
       <c r="G46" s="8">
         <v>55</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="1">
         <v>380</v>
       </c>
       <c r="I46" s="2">
@@ -4092,7 +4141,7 @@
       <c r="G47" s="8">
         <v>57</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="1">
         <v>206</v>
       </c>
       <c r="I47" s="2">
@@ -4163,7 +4212,7 @@
       <c r="G48" s="8">
         <v>59</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="1">
         <v>220</v>
       </c>
       <c r="I48" s="2">
@@ -4234,7 +4283,7 @@
       <c r="G49" s="9">
         <v>57</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49" s="5">
         <v>80</v>
       </c>
       <c r="I49" s="6">

--- a/dissertation/twinpeaks-sa/#twinPeaksData.xlsx
+++ b/dissertation/twinpeaks-sa/#twinPeaksData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\uniWork\dissertation\twinpeaks-sa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219CC90B-9D51-4348-8201-28A16D887A1E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F8F706-A997-4E7B-BEB0-277392AECC22}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A2F98D7D-73BE-49C7-AAAC-B193CEB33A64}"/>
+    <workbookView xWindow="-8208" yWindow="3984" windowWidth="17280" windowHeight="8964" xr2:uid="{A2F98D7D-73BE-49C7-AAAC-B193CEB33A64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CCAD1F-C37B-4DA9-8C2A-89122FB84B64}">
   <dimension ref="A1:AQ49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25:V29"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1094,7 +1094,7 @@
         <v>408.2</v>
       </c>
       <c r="P5" s="21">
-        <f t="shared" ref="P5:R5" si="0">SUM(P2:P4)</f>
+        <f t="shared" ref="P5:Q5" si="0">SUM(P2:P4)</f>
         <v>25.639898989898988</v>
       </c>
       <c r="Q5" s="21">
@@ -2091,7 +2091,7 @@
         <v>12698</v>
       </c>
       <c r="P17" s="21">
-        <f t="shared" ref="P17:R17" si="1">SUM(P14:P16)</f>
+        <f t="shared" ref="P17:Q17" si="1">SUM(P14:P16)</f>
         <v>805.69823232323233</v>
       </c>
       <c r="Q17" s="21">
@@ -2621,7 +2621,7 @@
         <v>7298</v>
       </c>
       <c r="P23" s="21">
-        <f t="shared" ref="P23:R23" si="3">SUM(P20:P22)</f>
+        <f t="shared" ref="P23:Q23" si="3">SUM(P20:P22)</f>
         <v>463.70202020202021</v>
       </c>
       <c r="Q23" s="21">
@@ -3151,7 +3151,7 @@
         <v>5400</v>
       </c>
       <c r="P29" s="21">
-        <f t="shared" ref="P29:R29" si="5">SUM(P26:P28)</f>
+        <f t="shared" ref="P29:Q29" si="5">SUM(P26:P28)</f>
         <v>341.99621212121212</v>
       </c>
       <c r="Q29" s="21">

--- a/dissertation/twinpeaks-sa/#twinPeaksData.xlsx
+++ b/dissertation/twinpeaks-sa/#twinPeaksData.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\uniWork\dissertation\twinpeaks-sa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489EE87B-B9BF-480F-893C-799D853A1768}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CB1028-F8CA-4655-AF47-376288402B20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="996" windowWidth="17280" windowHeight="8964" firstSheet="3" activeTab="4" xr2:uid="{A2F98D7D-73BE-49C7-AAAC-B193CEB33A64}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{A2F98D7D-73BE-49C7-AAAC-B193CEB33A64}"/>
   </bookViews>
   <sheets>
     <sheet name="All Data" sheetId="1" r:id="rId1"/>
     <sheet name="Afinn" sheetId="2" r:id="rId2"/>
     <sheet name="Bing" sheetId="3" r:id="rId3"/>
     <sheet name="A vs B" sheetId="4" r:id="rId4"/>
-    <sheet name="top-s1-afinn" sheetId="5" r:id="rId5"/>
+    <sheet name="Obj2" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Data'!$A$1:$J$49</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
   <si>
     <t>imdb-rating</t>
   </si>
@@ -119,12 +120,39 @@
   <si>
     <t>Bing</t>
   </si>
+  <si>
+    <t>To investigate the viewer rating of a TV show from reviewer websites.</t>
+  </si>
+  <si>
+    <t>Show IMDB data, then RT data, then compare as a third step.</t>
+  </si>
+  <si>
+    <t>IMDB Rating, RT Rating, RT Critics.</t>
+  </si>
+  <si>
+    <t>Viewer Rating</t>
+  </si>
+  <si>
+    <t>Season 1</t>
+  </si>
+  <si>
+    <t>Season 2</t>
+  </si>
+  <si>
+    <t>Season 3</t>
+  </si>
+  <si>
+    <t>RT-Critics</t>
+  </si>
+  <si>
+    <t>RT-Mean</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +173,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -315,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -401,8 +435,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -920,6 +967,2016 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1728025392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Viewer Ratings - Season 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Obj2'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IMDB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Obj2'!$C$6:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3119-46D0-BAC0-8BDC1FA44D9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Obj2'!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Obj2'!$D$6:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3119-46D0-BAC0-8BDC1FA44D9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2055072240"/>
+        <c:axId val="2055247200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2055072240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Episode</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2055247200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2055247200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Rating</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2055072240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Viewer Ratings - Season 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Obj2'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IMDB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Obj2'!$C$14:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A6A-46A0-89A9-0DE3E70E5FAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Obj2'!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Obj2'!$D$14:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6A6A-46A0-89A9-0DE3E70E5FAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="44344864"/>
+        <c:axId val="2055230976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="44344864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Episode</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2055230976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2055230976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Rating</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44344864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Viewer Ratings - Season 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Obj2'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IMDB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Obj2'!$C$36:$C$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-703C-4E76-BF65-8B34DD20B99E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Obj2'!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Obj2'!$D$36:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-703C-4E76-BF65-8B34DD20B99E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="52785440"/>
+        <c:axId val="2055243872"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="52785440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Episode</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2055243872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2055243872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Rating</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="52785440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6452,6 +8509,126 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7314,6 +9491,1515 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -11700,6 +15386,119 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F840E00-C759-4F1A-B8B2-D7CBDE1AFF42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54ACD316-5A26-4579-B694-1748519E2155}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F4CDD55-FACD-447A-B219-CCEE39494C83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -11999,8 +15798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CCAD1F-C37B-4DA9-8C2A-89122FB84B64}">
   <dimension ref="A1:AQ49"/>
   <sheetViews>
-    <sheetView topLeftCell="G17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K2" activeCellId="1" sqref="H2:H49 K2:K49"/>
+    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" activeCellId="1" sqref="C2:D49 E2:E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15823,7 +19622,10 @@
       <c r="M48" s="19">
         <v>227</v>
       </c>
-      <c r="N48" s="6"/>
+      <c r="N48" s="6">
+        <f>SUM(L48:M48)</f>
+        <v>280</v>
+      </c>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
@@ -15939,8 +19741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0798C36F-CFC8-4190-A3BF-F9AF6628BE09}">
   <dimension ref="B2:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:D34"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16517,7 +20319,7 @@
   <dimension ref="B2:D52"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17672,94 +21474,1079 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21F3E45-0AAB-4FAE-B47B-9E1CE51AE36C}">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415BF8DE-4555-4EAD-9750-707766C4AB9C}">
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B29" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="31"/>
+    <col min="2" max="2" width="13.88671875" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
+    <row r="1" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="B5" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
+      <c r="A6" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="32">
+        <v>34.6</v>
+      </c>
+      <c r="C6" s="32">
+        <v>8.9</v>
+      </c>
+      <c r="D6" s="32">
+        <v>10</v>
+      </c>
+      <c r="E6" s="32">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="B7" s="32">
+        <v>23.2</v>
+      </c>
+      <c r="C7" s="32">
+        <v>8.4</v>
+      </c>
+      <c r="D7" s="32">
+        <v>10</v>
+      </c>
+      <c r="E7" s="32">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="B8" s="32">
+        <v>19.2</v>
+      </c>
+      <c r="C8" s="32">
+        <v>9</v>
+      </c>
+      <c r="D8" s="32">
+        <v>8.6</v>
+      </c>
+      <c r="E8" s="32">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
+      <c r="B9" s="32">
+        <v>16.7</v>
+      </c>
+      <c r="C9" s="32">
+        <v>8.4</v>
+      </c>
+      <c r="D9" s="32">
+        <v>8.6</v>
+      </c>
+      <c r="E9" s="32">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
+      <c r="B10" s="32">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="C10" s="32">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D10" s="32">
+        <v>7.1</v>
+      </c>
+      <c r="E10" s="32">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+      <c r="B11" s="32">
+        <v>17.3</v>
+      </c>
+      <c r="C11" s="32">
+        <v>8.6</v>
+      </c>
+      <c r="D11" s="32">
+        <v>8.6</v>
+      </c>
+      <c r="E11" s="32">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="B12" s="32">
+        <v>15.6</v>
+      </c>
+      <c r="C12" s="32">
+        <v>8.6</v>
+      </c>
+      <c r="D12" s="32">
+        <v>7.1</v>
+      </c>
+      <c r="E12" s="32">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
+      <c r="B13" s="33">
+        <v>18.7</v>
+      </c>
+      <c r="C13" s="33">
+        <v>9.1</v>
+      </c>
+      <c r="D13" s="33">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E13" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="34">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C14" s="34">
+        <v>9</v>
+      </c>
+      <c r="D14" s="34">
+        <v>10</v>
+      </c>
+      <c r="E14" s="34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="32">
+        <v>14.4</v>
+      </c>
+      <c r="C15" s="32">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D15" s="32">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E15" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="32">
+        <v>13.7</v>
+      </c>
+      <c r="C16" s="32">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D16" s="32">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E16" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="32">
+        <v>12.8</v>
+      </c>
+      <c r="C17" s="32">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D17" s="32">
+        <v>6.7</v>
+      </c>
+      <c r="E17" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="32">
+        <v>11.4</v>
+      </c>
+      <c r="C18" s="32">
+        <v>8.5</v>
+      </c>
+      <c r="D18" s="32">
+        <v>6.7</v>
+      </c>
+      <c r="E18" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="32">
+        <v>11.3</v>
+      </c>
+      <c r="C19" s="32">
+        <v>8.6</v>
+      </c>
+      <c r="D19" s="32">
+        <v>10</v>
+      </c>
+      <c r="E19" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="32">
+        <v>17.2</v>
+      </c>
+      <c r="C20" s="32">
+        <v>9.4</v>
+      </c>
+      <c r="D20" s="32">
+        <v>10</v>
+      </c>
+      <c r="E20" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="32">
+        <v>13.3</v>
+      </c>
+      <c r="C21" s="32">
+        <v>8.6</v>
+      </c>
+      <c r="D21" s="32">
+        <v>6.7</v>
+      </c>
+      <c r="E21" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="32">
+        <v>12.4</v>
+      </c>
+      <c r="C22" s="32">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D22" s="32">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E22" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="32">
+        <v>11.1</v>
+      </c>
+      <c r="C23" s="32">
+        <v>7.9</v>
+      </c>
+      <c r="D23" s="32">
+        <v>5</v>
+      </c>
+      <c r="E23" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="32">
+        <v>12.1</v>
+      </c>
+      <c r="C24" s="32">
+        <v>7.5</v>
+      </c>
+      <c r="D24" s="32">
+        <v>5</v>
+      </c>
+      <c r="E24" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="32">
+        <v>10.3</v>
+      </c>
+      <c r="C25" s="32">
+        <v>7.6</v>
+      </c>
+      <c r="D25" s="32">
+        <v>4</v>
+      </c>
+      <c r="E25" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="32">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C26" s="32">
+        <v>7.8</v>
+      </c>
+      <c r="D26" s="32">
+        <v>6</v>
+      </c>
+      <c r="E26" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="32">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C27" s="32">
+        <v>7.7</v>
+      </c>
+      <c r="D27" s="32">
+        <v>6</v>
+      </c>
+      <c r="E27" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="32">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C28" s="32">
+        <v>7.5</v>
+      </c>
+      <c r="D28" s="32">
+        <v>2</v>
+      </c>
+      <c r="E28" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="32">
+        <v>7.8</v>
+      </c>
+      <c r="C29" s="32">
+        <v>7.9</v>
+      </c>
+      <c r="D29" s="32">
+        <v>4</v>
+      </c>
+      <c r="E29" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="32">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C30" s="32">
+        <v>7.6</v>
+      </c>
+      <c r="D30" s="32">
+        <v>8</v>
+      </c>
+      <c r="E30" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="32">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C31" s="32">
+        <v>8.1</v>
+      </c>
+      <c r="D31" s="32">
+        <v>10</v>
+      </c>
+      <c r="E31" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="32">
+        <v>7.9</v>
+      </c>
+      <c r="C32" s="32">
+        <v>8.1</v>
+      </c>
+      <c r="D32" s="32">
+        <v>10</v>
+      </c>
+      <c r="E32" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="32">
+        <v>7.4</v>
+      </c>
+      <c r="C33" s="32">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D33" s="32">
+        <v>10</v>
+      </c>
+      <c r="E33" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="32">
+        <v>10.4</v>
+      </c>
+      <c r="C34" s="32">
+        <v>8.6</v>
+      </c>
+      <c r="D34" s="32">
+        <v>10</v>
+      </c>
+      <c r="E34" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="33">
+        <v>10.4</v>
+      </c>
+      <c r="C35" s="33">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D35" s="33">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E35" s="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="32">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="C36" s="32">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D36" s="32">
+        <v>10</v>
+      </c>
+      <c r="E36" s="32">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="32">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="C37" s="32">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D37" s="32">
+        <v>10</v>
+      </c>
+      <c r="E37" s="32">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="32">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="C38" s="32">
+        <v>8.5</v>
+      </c>
+      <c r="D38" s="32">
+        <v>10</v>
+      </c>
+      <c r="E38" s="32">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="32">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="C39" s="32">
+        <v>8.6</v>
+      </c>
+      <c r="D39" s="32">
+        <v>10</v>
+      </c>
+      <c r="E39" s="32">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="32">
+        <v>0.254</v>
+      </c>
+      <c r="C40" s="32">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D40" s="32">
+        <v>10</v>
+      </c>
+      <c r="E40" s="32">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="32">
+        <v>0.27</v>
+      </c>
+      <c r="C41" s="32">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D41" s="32">
+        <v>10</v>
+      </c>
+      <c r="E41" s="32">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="32">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="C42" s="32">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D42" s="32">
+        <v>10</v>
+      </c>
+      <c r="E42" s="32">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="32">
+        <v>0.246</v>
+      </c>
+      <c r="C43" s="32">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D43" s="32">
+        <v>10</v>
+      </c>
+      <c r="E43" s="32">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="32">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="C44" s="32">
+        <v>8.5</v>
+      </c>
+      <c r="D44" s="32">
+        <v>10</v>
+      </c>
+      <c r="E44" s="32">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="32">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="C45" s="32">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D45" s="32">
+        <v>10</v>
+      </c>
+      <c r="E45" s="32">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="32">
+        <v>0.219</v>
+      </c>
+      <c r="C46" s="32">
+        <v>9</v>
+      </c>
+      <c r="D46" s="32">
+        <v>10</v>
+      </c>
+      <c r="E46" s="32">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="32">
+        <v>0.24</v>
+      </c>
+      <c r="C47" s="32">
+        <v>7.8</v>
+      </c>
+      <c r="D47" s="32">
+        <v>9</v>
+      </c>
+      <c r="E47" s="32">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="32">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C48" s="32">
+        <v>8.5</v>
+      </c>
+      <c r="D48" s="32">
+        <v>8.9</v>
+      </c>
+      <c r="E48" s="32">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="32">
+        <v>0.253</v>
+      </c>
+      <c r="C49" s="32">
+        <v>9.1</v>
+      </c>
+      <c r="D49" s="32">
+        <v>10</v>
+      </c>
+      <c r="E49" s="32">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="32">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="C50" s="32">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D50" s="32">
+        <v>10</v>
+      </c>
+      <c r="E50" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="32">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="C51" s="32">
+        <v>9.6</v>
+      </c>
+      <c r="D51" s="32">
+        <v>10</v>
+      </c>
+      <c r="E51" s="32">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="32">
+        <v>0.254</v>
+      </c>
+      <c r="C52" s="32">
+        <v>9.4</v>
+      </c>
+      <c r="D52" s="32">
+        <v>9.5</v>
+      </c>
+      <c r="E52" s="32">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="33">
+        <v>0.24</v>
+      </c>
+      <c r="C53" s="33">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D53" s="33">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E53" s="33">
+        <v>2.6</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F1:H1"/>
+  <mergeCells count="3">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD661B37-D27A-4799-8CC8-98F6490B983D}">
+  <dimension ref="B1:D48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.88671875" style="31" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="32">
+        <v>34.6</v>
+      </c>
+      <c r="C1" s="34">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="D1" s="32">
+        <v>0.50600000000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="32">
+        <v>23.2</v>
+      </c>
+      <c r="C2" s="32">
+        <v>14.4</v>
+      </c>
+      <c r="D2" s="32">
+        <v>0.50600000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="32">
+        <v>19.2</v>
+      </c>
+      <c r="C3" s="32">
+        <v>13.7</v>
+      </c>
+      <c r="D3" s="32">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="32">
+        <v>16.7</v>
+      </c>
+      <c r="C4" s="32">
+        <v>12.8</v>
+      </c>
+      <c r="D4" s="32">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="32">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="C5" s="32">
+        <v>11.4</v>
+      </c>
+      <c r="D5" s="32">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="32">
+        <v>17.3</v>
+      </c>
+      <c r="C6" s="32">
+        <v>11.3</v>
+      </c>
+      <c r="D6" s="32">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="32">
+        <v>15.6</v>
+      </c>
+      <c r="C7" s="32">
+        <v>17.2</v>
+      </c>
+      <c r="D7" s="32">
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="33">
+        <v>18.7</v>
+      </c>
+      <c r="C8" s="32">
+        <v>13.3</v>
+      </c>
+      <c r="D8" s="32">
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="34"/>
+      <c r="C9" s="32">
+        <v>12.4</v>
+      </c>
+      <c r="D9" s="32">
+        <v>0.35499999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="32"/>
+      <c r="C10" s="32">
+        <v>11.1</v>
+      </c>
+      <c r="D10" s="32">
+        <v>0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32">
+        <v>12.1</v>
+      </c>
+      <c r="D11" s="32">
+        <v>0.219</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="32"/>
+      <c r="C12" s="32">
+        <v>10.3</v>
+      </c>
+      <c r="D12" s="32">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D13" s="32">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="32"/>
+      <c r="C14" s="32">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D14" s="32">
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D15" s="32">
+        <v>0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="32"/>
+      <c r="C16" s="32">
+        <v>7.8</v>
+      </c>
+      <c r="D16" s="32">
+        <v>0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="32"/>
+      <c r="C17" s="32">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D17" s="32">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="32"/>
+      <c r="C18" s="32">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D18" s="33">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="32"/>
+      <c r="C19" s="32">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="32"/>
+      <c r="C20" s="32">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="32"/>
+      <c r="C21" s="32">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="32"/>
+      <c r="C22" s="33">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="33"/>
+      <c r="C30" s="32"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="32"/>
+      <c r="C40" s="33"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="32"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="32"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="32"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="32"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="32"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="32"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="32"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="33"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dissertation/twinpeaks-sa/#twinPeaksData.xlsx
+++ b/dissertation/twinpeaks-sa/#twinPeaksData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\uniWork\dissertation\twinpeaks-sa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CB1028-F8CA-4655-AF47-376288402B20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51FC8AB-399D-4A7D-A8A9-97618FBA8147}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{A2F98D7D-73BE-49C7-AAAC-B193CEB33A64}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A2F98D7D-73BE-49C7-AAAC-B193CEB33A64}"/>
   </bookViews>
   <sheets>
     <sheet name="All Data" sheetId="1" r:id="rId1"/>
@@ -349,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -438,9 +438,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -451,11 +448,1838 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="182">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -15798,8 +17622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CCAD1F-C37B-4DA9-8C2A-89122FB84B64}">
   <dimension ref="A1:AQ49"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="1" sqref="C2:D49 E2:E49"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16182,7 +18006,7 @@
       <c r="I5" s="1">
         <v>175</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="35">
         <v>148</v>
       </c>
       <c r="K5" s="4">
@@ -16191,7 +18015,7 @@
       <c r="L5" s="1">
         <v>155</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="35">
         <v>134</v>
       </c>
       <c r="N5" s="1" t="s">
@@ -17802,7 +19626,7 @@
       <c r="I24" s="1">
         <v>154</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="35">
         <v>150</v>
       </c>
       <c r="K24" s="4">
@@ -17882,7 +19706,7 @@
       <c r="L25" s="1">
         <v>147</v>
       </c>
-      <c r="M25" s="19">
+      <c r="M25" s="35">
         <v>136</v>
       </c>
       <c r="N25" s="16" t="s">
@@ -19323,7 +21147,7 @@
       <c r="H44" s="4">
         <v>355</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44" s="17">
         <v>211</v>
       </c>
       <c r="J44" s="19">
@@ -19619,13 +21443,10 @@
       <c r="L48" s="1">
         <v>53</v>
       </c>
-      <c r="M48" s="19">
+      <c r="M48" s="35">
         <v>227</v>
       </c>
-      <c r="N48" s="6">
-        <f>SUM(L48:M48)</f>
-        <v>280</v>
-      </c>
+      <c r="N48" s="6"/>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
@@ -19729,6 +21550,43 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="J10:J31">
+    <cfRule type="top10" dxfId="115" priority="13" rank="10"/>
+    <cfRule type="top10" dxfId="114" priority="11" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J9">
+    <cfRule type="top10" dxfId="113" priority="12" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32:J49">
+    <cfRule type="top10" dxfId="112" priority="10" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I9">
+    <cfRule type="top10" dxfId="111" priority="9" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:I31">
+    <cfRule type="top10" dxfId="110" priority="8" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:I49">
+    <cfRule type="top10" dxfId="109" priority="7" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M9">
+    <cfRule type="top10" dxfId="108" priority="6" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10:M31">
+    <cfRule type="top10" dxfId="107" priority="5" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M32:M49">
+    <cfRule type="top10" dxfId="106" priority="4" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L9">
+    <cfRule type="top10" dxfId="105" priority="3" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10:L31">
+    <cfRule type="top10" dxfId="104" priority="2" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32:L49">
+    <cfRule type="top10" dxfId="91" priority="1" rank="3"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
@@ -19741,8 +21599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0798C36F-CFC8-4190-A3BF-F9AF6628BE09}">
   <dimension ref="B2:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20309,6 +22167,31 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D35:D52">
+    <cfRule type="top10" dxfId="0" priority="13" percent="1" rank="2"/>
+    <cfRule type="top10" dxfId="1" priority="11" rank="3"/>
+    <cfRule type="top10" dxfId="2" priority="1" bottom="1" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35:C52">
+    <cfRule type="top10" dxfId="24" priority="12" rank="3"/>
+    <cfRule type="top10" dxfId="23" priority="2" bottom="1" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D10">
+    <cfRule type="top10" dxfId="22" priority="10" rank="3"/>
+    <cfRule type="top10" dxfId="21" priority="3" bottom="1" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C10">
+    <cfRule type="top10" dxfId="20" priority="9" rank="3"/>
+    <cfRule type="top10" dxfId="19" priority="4" bottom="1" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C33">
+    <cfRule type="top10" dxfId="18" priority="8" rank="3"/>
+    <cfRule type="top10" dxfId="17" priority="6" bottom="1" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D33">
+    <cfRule type="top10" dxfId="16" priority="7" rank="3"/>
+    <cfRule type="top10" dxfId="15" priority="5" bottom="1" rank="3"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -21483,47 +23366,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="31"/>
-    <col min="2" max="2" width="13.88671875" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="31"/>
+    <col min="1" max="1" width="8.88671875" style="30"/>
+    <col min="2" max="2" width="13.88671875" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="29" t="s">
@@ -21538,688 +23421,688 @@
       <c r="E5" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="30" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="31">
         <v>34.6</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="31">
         <v>8.9</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="31">
         <v>10</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="31">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="32">
+      <c r="B7" s="31">
         <v>23.2</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="31">
         <v>8.4</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="31">
         <v>10</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="31">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="32">
+      <c r="B8" s="31">
         <v>19.2</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="31">
         <v>9</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="31">
         <v>8.6</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="31">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="32">
+      <c r="B9" s="31">
         <v>16.7</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="31">
         <v>8.4</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="31">
         <v>8.6</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="31">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="32">
+      <c r="B10" s="31">
         <v>17.399999999999999</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="31">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="31">
         <v>7.1</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="31">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="32">
+      <c r="B11" s="31">
         <v>17.3</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="31">
         <v>8.6</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="31">
         <v>8.6</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="31">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="32">
+      <c r="B12" s="31">
         <v>15.6</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="31">
         <v>8.6</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="31">
         <v>7.1</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="31">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="33">
+      <c r="B13" s="32">
         <v>18.7</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="32">
         <v>9.1</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="32">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="32">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="33">
         <v>19.100000000000001</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="33">
         <v>9</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="33">
         <v>10</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="33">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="32">
+      <c r="B15" s="31">
         <v>14.4</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="31">
         <v>8.6999999999999993</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="31">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="31">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="32">
+      <c r="B16" s="31">
         <v>13.7</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="31">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="31">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="31">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="32">
+      <c r="B17" s="31">
         <v>12.8</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="31">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="31">
         <v>6.7</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="31">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="32">
+      <c r="B18" s="31">
         <v>11.4</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="31">
         <v>8.5</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="31">
         <v>6.7</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="31">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="32">
+      <c r="B19" s="31">
         <v>11.3</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="31">
         <v>8.6</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="31">
         <v>10</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="31">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="32">
+      <c r="B20" s="31">
         <v>17.2</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="31">
         <v>9.4</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="31">
         <v>10</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="31">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="32">
+      <c r="B21" s="31">
         <v>13.3</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="31">
         <v>8.6</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="31">
         <v>6.7</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="31">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="32">
+      <c r="B22" s="31">
         <v>12.4</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="31">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="31">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="31">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="32">
+      <c r="B23" s="31">
         <v>11.1</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="31">
         <v>7.9</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23" s="31">
         <v>5</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="31">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="32">
+      <c r="B24" s="31">
         <v>12.1</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="31">
         <v>7.5</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="31">
         <v>5</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E24" s="31">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="32">
+      <c r="B25" s="31">
         <v>10.3</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="31">
         <v>7.6</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="31">
         <v>4</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="31">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="32">
+      <c r="B26" s="31">
         <v>9.8000000000000007</v>
       </c>
-      <c r="C26" s="32">
+      <c r="C26" s="31">
         <v>7.8</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D26" s="31">
         <v>6</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="31">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="32">
+      <c r="B27" s="31">
         <v>8.6999999999999993</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="31">
         <v>7.7</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D27" s="31">
         <v>6</v>
       </c>
-      <c r="E27" s="32">
+      <c r="E27" s="31">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="32">
+      <c r="B28" s="31">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="31">
         <v>7.5</v>
       </c>
-      <c r="D28" s="32">
+      <c r="D28" s="31">
         <v>2</v>
       </c>
-      <c r="E28" s="32">
+      <c r="E28" s="31">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="32">
+      <c r="B29" s="31">
         <v>7.8</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="31">
         <v>7.9</v>
       </c>
-      <c r="D29" s="32">
+      <c r="D29" s="31">
         <v>4</v>
       </c>
-      <c r="E29" s="32">
+      <c r="E29" s="31">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="32">
+      <c r="B30" s="31">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="31">
         <v>7.6</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D30" s="31">
         <v>8</v>
       </c>
-      <c r="E30" s="32">
+      <c r="E30" s="31">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="32">
+      <c r="B31" s="31">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C31" s="32">
+      <c r="C31" s="31">
         <v>8.1</v>
       </c>
-      <c r="D31" s="32">
+      <c r="D31" s="31">
         <v>10</v>
       </c>
-      <c r="E31" s="32">
+      <c r="E31" s="31">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="32">
+      <c r="B32" s="31">
         <v>7.9</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C32" s="31">
         <v>8.1</v>
       </c>
-      <c r="D32" s="32">
+      <c r="D32" s="31">
         <v>10</v>
       </c>
-      <c r="E32" s="32">
+      <c r="E32" s="31">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="32">
+      <c r="B33" s="31">
         <v>7.4</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="31">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="31">
         <v>10</v>
       </c>
-      <c r="E33" s="32">
+      <c r="E33" s="31">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="32">
+      <c r="B34" s="31">
         <v>10.4</v>
       </c>
-      <c r="C34" s="32">
+      <c r="C34" s="31">
         <v>8.6</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="31">
         <v>10</v>
       </c>
-      <c r="E34" s="32">
+      <c r="E34" s="31">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="33">
+      <c r="B35" s="32">
         <v>10.4</v>
       </c>
-      <c r="C35" s="33">
+      <c r="C35" s="32">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D35" s="33">
+      <c r="D35" s="32">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E35" s="33">
+      <c r="E35" s="32">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="32">
+      <c r="B36" s="31">
         <v>0.50600000000000001</v>
       </c>
-      <c r="C36" s="32">
+      <c r="C36" s="31">
         <v>8.6999999999999993</v>
       </c>
-      <c r="D36" s="32">
+      <c r="D36" s="31">
         <v>10</v>
       </c>
-      <c r="E36" s="32">
+      <c r="E36" s="31">
         <v>2.9</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="32">
+      <c r="B37" s="31">
         <v>0.50600000000000001</v>
       </c>
-      <c r="C37" s="32">
+      <c r="C37" s="31">
         <v>8.8000000000000007</v>
       </c>
-      <c r="D37" s="32">
+      <c r="D37" s="31">
         <v>10</v>
       </c>
-      <c r="E37" s="32">
+      <c r="E37" s="31">
         <v>1.3</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="32">
+      <c r="B38" s="31">
         <v>0.19500000000000001</v>
       </c>
-      <c r="C38" s="32">
+      <c r="C38" s="31">
         <v>8.5</v>
       </c>
-      <c r="D38" s="32">
+      <c r="D38" s="31">
         <v>10</v>
       </c>
-      <c r="E38" s="32">
+      <c r="E38" s="31">
         <v>2.1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="32">
+      <c r="B39" s="31">
         <v>0.19500000000000001</v>
       </c>
-      <c r="C39" s="32">
+      <c r="C39" s="31">
         <v>8.6</v>
       </c>
-      <c r="D39" s="32">
+      <c r="D39" s="31">
         <v>10</v>
       </c>
-      <c r="E39" s="32">
+      <c r="E39" s="31">
         <v>1.4</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="32">
+      <c r="B40" s="31">
         <v>0.254</v>
       </c>
-      <c r="C40" s="32">
+      <c r="C40" s="31">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D40" s="32">
+      <c r="D40" s="31">
         <v>10</v>
       </c>
-      <c r="E40" s="32">
+      <c r="E40" s="31">
         <v>1.5</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="32">
+      <c r="B41" s="31">
         <v>0.27</v>
       </c>
-      <c r="C41" s="32">
+      <c r="C41" s="31">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D41" s="32">
+      <c r="D41" s="31">
         <v>10</v>
       </c>
-      <c r="E41" s="32">
+      <c r="E41" s="31">
         <v>1.9</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="32">
+      <c r="B42" s="31">
         <v>0.29399999999999998</v>
       </c>
-      <c r="C42" s="32">
+      <c r="C42" s="31">
         <v>8.8000000000000007</v>
       </c>
-      <c r="D42" s="32">
+      <c r="D42" s="31">
         <v>10</v>
       </c>
-      <c r="E42" s="32">
+      <c r="E42" s="31">
         <v>1.5</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="32">
+      <c r="B43" s="31">
         <v>0.246</v>
       </c>
-      <c r="C43" s="32">
+      <c r="C43" s="31">
         <v>8.8000000000000007</v>
       </c>
-      <c r="D43" s="32">
+      <c r="D43" s="31">
         <v>10</v>
       </c>
-      <c r="E43" s="32">
+      <c r="E43" s="31">
         <v>2.8</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="32">
+      <c r="B44" s="31">
         <v>0.35499999999999998</v>
       </c>
-      <c r="C44" s="32">
+      <c r="C44" s="31">
         <v>8.5</v>
       </c>
-      <c r="D44" s="32">
+      <c r="D44" s="31">
         <v>10</v>
       </c>
-      <c r="E44" s="32">
+      <c r="E44" s="31">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="32">
+      <c r="B45" s="31">
         <v>0.26700000000000002</v>
       </c>
-      <c r="C45" s="32">
+      <c r="C45" s="31">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D45" s="32">
+      <c r="D45" s="31">
         <v>10</v>
       </c>
-      <c r="E45" s="32">
+      <c r="E45" s="31">
         <v>1.7</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="32">
+      <c r="B46" s="31">
         <v>0.219</v>
       </c>
-      <c r="C46" s="32">
+      <c r="C46" s="31">
         <v>9</v>
       </c>
-      <c r="D46" s="32">
+      <c r="D46" s="31">
         <v>10</v>
       </c>
-      <c r="E46" s="32">
+      <c r="E46" s="31">
         <v>1.6</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="32">
+      <c r="B47" s="31">
         <v>0.24</v>
       </c>
-      <c r="C47" s="32">
+      <c r="C47" s="31">
         <v>7.8</v>
       </c>
-      <c r="D47" s="32">
+      <c r="D47" s="31">
         <v>9</v>
       </c>
-      <c r="E47" s="32">
+      <c r="E47" s="31">
         <v>2.1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="32">
+      <c r="B48" s="31">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C48" s="32">
+      <c r="C48" s="31">
         <v>8.5</v>
       </c>
-      <c r="D48" s="32">
+      <c r="D48" s="31">
         <v>8.9</v>
       </c>
-      <c r="E48" s="32">
+      <c r="E48" s="31">
         <v>1.9</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="32">
+      <c r="B49" s="31">
         <v>0.253</v>
       </c>
-      <c r="C49" s="32">
+      <c r="C49" s="31">
         <v>9.1</v>
       </c>
-      <c r="D49" s="32">
+      <c r="D49" s="31">
         <v>10</v>
       </c>
-      <c r="E49" s="32">
+      <c r="E49" s="31">
         <v>2.1</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="32">
+      <c r="B50" s="31">
         <v>0.32900000000000001</v>
       </c>
-      <c r="C50" s="32">
+      <c r="C50" s="31">
         <v>8.8000000000000007</v>
       </c>
-      <c r="D50" s="32">
+      <c r="D50" s="31">
         <v>10</v>
       </c>
-      <c r="E50" s="32">
+      <c r="E50" s="31">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="32">
+      <c r="B51" s="31">
         <v>0.26700000000000002</v>
       </c>
-      <c r="C51" s="32">
+      <c r="C51" s="31">
         <v>9.6</v>
       </c>
-      <c r="D51" s="32">
+      <c r="D51" s="31">
         <v>10</v>
       </c>
-      <c r="E51" s="32">
+      <c r="E51" s="31">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="32">
+      <c r="B52" s="31">
         <v>0.254</v>
       </c>
-      <c r="C52" s="32">
+      <c r="C52" s="31">
         <v>9.4</v>
       </c>
-      <c r="D52" s="32">
+      <c r="D52" s="31">
         <v>9.5</v>
       </c>
-      <c r="E52" s="32">
+      <c r="E52" s="31">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B53" s="33">
+      <c r="B53" s="32">
         <v>0.24</v>
       </c>
-      <c r="C53" s="33">
+      <c r="C53" s="32">
         <v>8.8000000000000007</v>
       </c>
-      <c r="D53" s="33">
+      <c r="D53" s="32">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E53" s="33">
+      <c r="E53" s="32">
         <v>2.6</v>
       </c>
     </row>
@@ -22239,312 +24122,312 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD661B37-D27A-4799-8CC8-98F6490B983D}">
   <dimension ref="B1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1" s="32">
+      <c r="B1" s="31">
         <v>34.6</v>
       </c>
-      <c r="C1" s="34">
+      <c r="C1" s="33">
         <v>19.100000000000001</v>
       </c>
-      <c r="D1" s="32">
+      <c r="D1" s="31">
         <v>0.50600000000000001</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="32">
+      <c r="B2" s="31">
         <v>23.2</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="31">
         <v>14.4</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="31">
         <v>0.50600000000000001</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="32">
+      <c r="B3" s="31">
         <v>19.2</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="31">
         <v>13.7</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="31">
         <v>0.19500000000000001</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="32">
+      <c r="B4" s="31">
         <v>16.7</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="31">
         <v>12.8</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="31">
         <v>0.19500000000000001</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="32">
+      <c r="B5" s="31">
         <v>17.399999999999999</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="31">
         <v>11.4</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="31">
         <v>0.254</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="32">
+      <c r="B6" s="31">
         <v>17.3</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="31">
         <v>11.3</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="31">
         <v>0.27</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="32">
+      <c r="B7" s="31">
         <v>15.6</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="31">
         <v>17.2</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="31">
         <v>0.29399999999999998</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="33">
+      <c r="B8" s="32">
         <v>18.7</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="31">
         <v>13.3</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="31">
         <v>0.246</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="34"/>
-      <c r="C9" s="32">
+      <c r="B9" s="33"/>
+      <c r="C9" s="31">
         <v>12.4</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="31">
         <v>0.35499999999999998</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="32"/>
-      <c r="C10" s="32">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31">
         <v>11.1</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="31">
         <v>0.26700000000000002</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32">
+      <c r="B11" s="31"/>
+      <c r="C11" s="31">
         <v>12.1</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="31">
         <v>0.219</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31">
         <v>10.3</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="31">
         <v>0.24</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="32"/>
-      <c r="C13" s="32">
+      <c r="B13" s="31"/>
+      <c r="C13" s="31">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="31">
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32">
+      <c r="B14" s="31"/>
+      <c r="C14" s="31">
         <v>8.6999999999999993</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="31">
         <v>0.253</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32">
+      <c r="B15" s="31"/>
+      <c r="C15" s="31">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="31">
         <v>0.32900000000000001</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="32"/>
-      <c r="C16" s="32">
+      <c r="B16" s="31"/>
+      <c r="C16" s="31">
         <v>7.8</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="31">
         <v>0.26700000000000002</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="32"/>
-      <c r="C17" s="32">
+      <c r="B17" s="31"/>
+      <c r="C17" s="31">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="31">
         <v>0.254</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="32"/>
-      <c r="C18" s="32">
+      <c r="B18" s="31"/>
+      <c r="C18" s="31">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="32">
         <v>0.24</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="32"/>
-      <c r="C19" s="32">
+      <c r="B19" s="31"/>
+      <c r="C19" s="31">
         <v>7.9</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="32"/>
-      <c r="C20" s="32">
+      <c r="B20" s="31"/>
+      <c r="C20" s="31">
         <v>7.4</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="32"/>
-      <c r="C21" s="32">
+      <c r="B21" s="31"/>
+      <c r="C21" s="31">
         <v>10.4</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="32"/>
-      <c r="C22" s="33">
+      <c r="B22" s="31"/>
+      <c r="C22" s="32">
         <v>10.4</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="33"/>
-      <c r="C30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="31"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="32"/>
-      <c r="C40" s="33"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="32"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B41" s="32"/>
+      <c r="B41" s="31"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="32"/>
+      <c r="B42" s="31"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="32"/>
+      <c r="B43" s="31"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="32"/>
+      <c r="B44" s="31"/>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="32"/>
+      <c r="B45" s="31"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="32"/>
+      <c r="B46" s="31"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="32"/>
+      <c r="B47" s="31"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B48" s="33"/>
+      <c r="B48" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dissertation/twinpeaks-sa/#twinPeaksData.xlsx
+++ b/dissertation/twinpeaks-sa/#twinPeaksData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\uniWork\dissertation\twinpeaks-sa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51FC8AB-399D-4A7D-A8A9-97618FBA8147}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC972519-D24B-4B57-8B96-88886847DA46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A2F98D7D-73BE-49C7-AAAC-B193CEB33A64}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="5" xr2:uid="{A2F98D7D-73BE-49C7-AAAC-B193CEB33A64}"/>
   </bookViews>
   <sheets>
     <sheet name="All Data" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="36">
   <si>
     <t>imdb-rating</t>
   </si>
@@ -145,14 +145,17 @@
     <t>RT-Critics</t>
   </si>
   <si>
-    <t>RT-Mean</t>
+    <t>IMDB AVG</t>
+  </si>
+  <si>
+    <t>RT AVG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +178,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -349,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -448,137 +458,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="182">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="29">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -731,636 +622,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1456,786 +717,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -17623,7 +16104,7 @@
   <dimension ref="A1:AQ49"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18006,7 +16487,7 @@
       <c r="I5" s="1">
         <v>175</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="34">
         <v>148</v>
       </c>
       <c r="K5" s="4">
@@ -18015,7 +16496,7 @@
       <c r="L5" s="1">
         <v>155</v>
       </c>
-      <c r="M5" s="35">
+      <c r="M5" s="34">
         <v>134</v>
       </c>
       <c r="N5" s="1" t="s">
@@ -19626,7 +18107,7 @@
       <c r="I24" s="1">
         <v>154</v>
       </c>
-      <c r="J24" s="35">
+      <c r="J24" s="34">
         <v>150</v>
       </c>
       <c r="K24" s="4">
@@ -19706,7 +18187,7 @@
       <c r="L25" s="1">
         <v>147</v>
       </c>
-      <c r="M25" s="35">
+      <c r="M25" s="34">
         <v>136</v>
       </c>
       <c r="N25" s="16" t="s">
@@ -21443,7 +19924,7 @@
       <c r="L48" s="1">
         <v>53</v>
       </c>
-      <c r="M48" s="35">
+      <c r="M48" s="34">
         <v>227</v>
       </c>
       <c r="N48" s="6"/>
@@ -21551,41 +20032,41 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J10:J31">
-    <cfRule type="top10" dxfId="115" priority="13" rank="10"/>
-    <cfRule type="top10" dxfId="114" priority="11" rank="10"/>
+    <cfRule type="top10" dxfId="28" priority="13" rank="10"/>
+    <cfRule type="top10" dxfId="27" priority="11" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J9">
-    <cfRule type="top10" dxfId="113" priority="12" rank="10"/>
+    <cfRule type="top10" dxfId="26" priority="12" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:J49">
-    <cfRule type="top10" dxfId="112" priority="10" rank="10"/>
+    <cfRule type="top10" dxfId="25" priority="10" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I9">
-    <cfRule type="top10" dxfId="111" priority="9" rank="3"/>
+    <cfRule type="top10" dxfId="24" priority="9" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I31">
-    <cfRule type="top10" dxfId="110" priority="8" rank="3"/>
+    <cfRule type="top10" dxfId="23" priority="8" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:I49">
-    <cfRule type="top10" dxfId="109" priority="7" rank="3"/>
+    <cfRule type="top10" dxfId="22" priority="7" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M9">
-    <cfRule type="top10" dxfId="108" priority="6" rank="3"/>
+    <cfRule type="top10" dxfId="21" priority="6" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:M31">
-    <cfRule type="top10" dxfId="107" priority="5" rank="3"/>
+    <cfRule type="top10" dxfId="20" priority="5" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32:M49">
-    <cfRule type="top10" dxfId="106" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="19" priority="4" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L9">
-    <cfRule type="top10" dxfId="105" priority="3" rank="3"/>
+    <cfRule type="top10" dxfId="18" priority="3" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:L31">
-    <cfRule type="top10" dxfId="104" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="17" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32:L49">
-    <cfRule type="top10" dxfId="91" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="16" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21599,7 +20080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0798C36F-CFC8-4190-A3BF-F9AF6628BE09}">
   <dimension ref="B2:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D35" sqref="D35:D52"/>
     </sheetView>
   </sheetViews>
@@ -22168,29 +20649,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D35:D52">
-    <cfRule type="top10" dxfId="0" priority="13" percent="1" rank="2"/>
-    <cfRule type="top10" dxfId="1" priority="11" rank="3"/>
-    <cfRule type="top10" dxfId="2" priority="1" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="15" priority="13" percent="1" rank="2"/>
+    <cfRule type="top10" dxfId="14" priority="11" rank="3"/>
+    <cfRule type="top10" dxfId="13" priority="1" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:C52">
-    <cfRule type="top10" dxfId="24" priority="12" rank="3"/>
-    <cfRule type="top10" dxfId="23" priority="2" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="12" priority="12" rank="3"/>
+    <cfRule type="top10" dxfId="11" priority="2" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D10">
-    <cfRule type="top10" dxfId="22" priority="10" rank="3"/>
-    <cfRule type="top10" dxfId="21" priority="3" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="10" priority="10" rank="3"/>
+    <cfRule type="top10" dxfId="9" priority="3" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C10">
-    <cfRule type="top10" dxfId="20" priority="9" rank="3"/>
-    <cfRule type="top10" dxfId="19" priority="4" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="8" priority="9" rank="3"/>
+    <cfRule type="top10" dxfId="7" priority="4" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C33">
-    <cfRule type="top10" dxfId="18" priority="8" rank="3"/>
-    <cfRule type="top10" dxfId="17" priority="6" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="6" priority="8" rank="3"/>
+    <cfRule type="top10" dxfId="5" priority="6" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D33">
-    <cfRule type="top10" dxfId="16" priority="7" rank="3"/>
-    <cfRule type="top10" dxfId="15" priority="5" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="4" priority="7" rank="3"/>
+    <cfRule type="top10" dxfId="3" priority="5" bottom="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -23360,8 +21841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415BF8DE-4555-4EAD-9750-707766C4AB9C}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B29" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -23371,42 +21852,42 @@
     <col min="3" max="3" width="6.5546875" style="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.33203125" style="30" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="30" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="29" t="s">
@@ -23421,7 +21902,7 @@
       <c r="E5" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="36" t="s">
         <v>34</v>
       </c>
     </row>
@@ -23441,6 +21922,10 @@
       <c r="E6" s="31">
         <v>8</v>
       </c>
+      <c r="F6" s="30">
+        <f>AVERAGE(C6:C13)</f>
+        <v>8.65</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="31">
@@ -23455,6 +21940,9 @@
       <c r="E7" s="31">
         <v>9</v>
       </c>
+      <c r="F7" s="36" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="31">
@@ -23469,6 +21957,10 @@
       <c r="E8" s="31">
         <v>7</v>
       </c>
+      <c r="F8" s="30">
+        <f>AVERAGE(D6:D13)</f>
+        <v>8.6000000000000014</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="31">
@@ -23539,6 +22031,9 @@
       <c r="E13" s="32">
         <v>8</v>
       </c>
+      <c r="F13" s="36" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
@@ -23556,6 +22051,10 @@
       <c r="E14" s="33">
         <v>8</v>
       </c>
+      <c r="F14" s="30">
+        <f>AVERAGE(C14:C35)</f>
+        <v>8.295454545454545</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="31">
@@ -23570,6 +22069,9 @@
       <c r="E15" s="31">
         <v>8</v>
       </c>
+      <c r="F15" s="36" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="31">
@@ -23584,6 +22086,10 @@
       <c r="E16" s="31">
         <v>6</v>
       </c>
+      <c r="F16" s="30">
+        <f>AVERAGE(D14:D35)</f>
+        <v>7.4454545454545462</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="31">
@@ -23809,7 +22315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B33" s="31">
         <v>7.4</v>
       </c>
@@ -23823,7 +22329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B34" s="31">
         <v>10.4</v>
       </c>
@@ -23837,7 +22343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B35" s="32">
         <v>10.4</v>
       </c>
@@ -23850,8 +22356,11 @@
       <c r="E35" s="32">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="30" t="s">
         <v>32</v>
       </c>
@@ -23867,8 +22376,12 @@
       <c r="E36" s="31">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="30">
+        <f>AVERAGE(C36:C53)</f>
+        <v>8.6944444444444446</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B37" s="31">
         <v>0.50600000000000001</v>
       </c>
@@ -23881,8 +22394,11 @@
       <c r="E37" s="31">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B38" s="31">
         <v>0.19500000000000001</v>
       </c>
@@ -23895,8 +22411,12 @@
       <c r="E38" s="31">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="30">
+        <f>AVERAGE(D36:D53)</f>
+        <v>9.7888888888888896</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39" s="31">
         <v>0.19500000000000001</v>
       </c>
@@ -23910,7 +22430,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40" s="31">
         <v>0.254</v>
       </c>
@@ -23924,7 +22444,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B41" s="31">
         <v>0.27</v>
       </c>
@@ -23938,7 +22458,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B42" s="31">
         <v>0.29399999999999998</v>
       </c>
@@ -23952,7 +22472,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B43" s="31">
         <v>0.246</v>
       </c>
@@ -23966,7 +22486,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B44" s="31">
         <v>0.35499999999999998</v>
       </c>
@@ -23980,7 +22500,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B45" s="31">
         <v>0.26700000000000002</v>
       </c>
@@ -23994,7 +22514,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B46" s="31">
         <v>0.219</v>
       </c>
@@ -24008,7 +22528,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B47" s="31">
         <v>0.24</v>
       </c>
@@ -24022,7 +22542,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B48" s="31">
         <v>0.28000000000000003</v>
       </c>
@@ -24112,6 +22632,12 @@
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B2:H2"/>
   </mergeCells>
+  <conditionalFormatting sqref="C6:C53">
+    <cfRule type="top10" dxfId="2" priority="2" rank="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D53">
+    <cfRule type="top10" dxfId="0" priority="1" rank="9"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -24122,8 +22648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD661B37-D27A-4799-8CC8-98F6490B983D}">
   <dimension ref="B1:D48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/dissertation/twinpeaks-sa/#twinPeaksData.xlsx
+++ b/dissertation/twinpeaks-sa/#twinPeaksData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\uniWork\dissertation\twinpeaks-sa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC972519-D24B-4B57-8B96-88886847DA46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE8435F-0149-405E-95AA-431C9F152998}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="5" xr2:uid="{A2F98D7D-73BE-49C7-AAAC-B193CEB33A64}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{A2F98D7D-73BE-49C7-AAAC-B193CEB33A64}"/>
   </bookViews>
   <sheets>
     <sheet name="All Data" sheetId="1" r:id="rId1"/>
@@ -461,15 +461,305 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="45">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -607,136 +897,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -15583,15 +15743,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16103,8 +16263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CCAD1F-C37B-4DA9-8C2A-89122FB84B64}">
   <dimension ref="A1:AQ49"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H2" activeCellId="1" sqref="K2:K9 H2:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20032,41 +20192,44 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J10:J31">
-    <cfRule type="top10" dxfId="28" priority="13" rank="10"/>
-    <cfRule type="top10" dxfId="27" priority="11" rank="10"/>
+    <cfRule type="top10" dxfId="29" priority="14" rank="10"/>
+    <cfRule type="top10" dxfId="28" priority="12" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J9">
-    <cfRule type="top10" dxfId="26" priority="12" rank="10"/>
+    <cfRule type="top10" dxfId="27" priority="13" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:J49">
-    <cfRule type="top10" dxfId="25" priority="10" rank="10"/>
+    <cfRule type="top10" dxfId="26" priority="11" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I9">
+    <cfRule type="top10" dxfId="25" priority="10" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:I31">
     <cfRule type="top10" dxfId="24" priority="9" rank="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I31">
+  <conditionalFormatting sqref="I32:I49">
     <cfRule type="top10" dxfId="23" priority="8" rank="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:I49">
+  <conditionalFormatting sqref="M2:M9">
     <cfRule type="top10" dxfId="22" priority="7" rank="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M9">
+  <conditionalFormatting sqref="M10:M31">
     <cfRule type="top10" dxfId="21" priority="6" rank="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M10:M31">
+  <conditionalFormatting sqref="M32:M49">
     <cfRule type="top10" dxfId="20" priority="5" rank="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M32:M49">
+  <conditionalFormatting sqref="L2:L9">
     <cfRule type="top10" dxfId="19" priority="4" rank="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L9">
+  <conditionalFormatting sqref="L10:L31">
     <cfRule type="top10" dxfId="18" priority="3" rank="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L10:L31">
+  <conditionalFormatting sqref="L32:L49">
     <cfRule type="top10" dxfId="17" priority="2" rank="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L32:L49">
-    <cfRule type="top10" dxfId="16" priority="1" rank="3"/>
+  <conditionalFormatting sqref="H2:H9 K2:K9">
+    <cfRule type="top10" dxfId="3" priority="1" rank="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20649,29 +20812,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D35:D52">
-    <cfRule type="top10" dxfId="15" priority="13" percent="1" rank="2"/>
-    <cfRule type="top10" dxfId="14" priority="11" rank="3"/>
-    <cfRule type="top10" dxfId="13" priority="1" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="44" priority="13" percent="1" rank="2"/>
+    <cfRule type="top10" dxfId="43" priority="11" rank="3"/>
+    <cfRule type="top10" dxfId="42" priority="1" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:C52">
-    <cfRule type="top10" dxfId="12" priority="12" rank="3"/>
-    <cfRule type="top10" dxfId="11" priority="2" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="41" priority="12" rank="3"/>
+    <cfRule type="top10" dxfId="40" priority="2" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D10">
-    <cfRule type="top10" dxfId="10" priority="10" rank="3"/>
-    <cfRule type="top10" dxfId="9" priority="3" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="39" priority="10" rank="3"/>
+    <cfRule type="top10" dxfId="38" priority="3" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C10">
-    <cfRule type="top10" dxfId="8" priority="9" rank="3"/>
-    <cfRule type="top10" dxfId="7" priority="4" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="37" priority="9" rank="3"/>
+    <cfRule type="top10" dxfId="36" priority="4" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C33">
-    <cfRule type="top10" dxfId="6" priority="8" rank="3"/>
-    <cfRule type="top10" dxfId="5" priority="6" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="35" priority="8" rank="3"/>
+    <cfRule type="top10" dxfId="34" priority="6" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D33">
-    <cfRule type="top10" dxfId="4" priority="7" rank="3"/>
-    <cfRule type="top10" dxfId="3" priority="5" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="33" priority="7" rank="3"/>
+    <cfRule type="top10" dxfId="32" priority="5" bottom="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -21261,15 +21424,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510E5E52-0290-4410-A85A-795A8D1AEAC6}">
-  <dimension ref="B2:D52"/>
+  <dimension ref="B2:E52"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
         <v>23</v>
       </c>
@@ -21280,7 +21446,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -21290,8 +21456,12 @@
       <c r="D3" s="4">
         <v>379</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="str">
+        <f>IF(C3&gt;D3,"Afinn","Bing")</f>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -21301,8 +21471,12 @@
       <c r="D4" s="4">
         <v>270</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="str">
+        <f t="shared" ref="E4:E52" si="0">IF(C4&gt;D4,"Afinn","Bing")</f>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -21312,8 +21486,12 @@
       <c r="D5" s="4">
         <v>168</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -21323,8 +21501,12 @@
       <c r="D6" s="4">
         <v>289</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -21334,8 +21516,12 @@
       <c r="D7" s="4">
         <v>248</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -21345,8 +21531,12 @@
       <c r="D8" s="4">
         <v>251</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -21356,8 +21546,12 @@
       <c r="D9" s="4">
         <v>209</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="23">
         <v>8</v>
       </c>
@@ -21367,8 +21561,12 @@
       <c r="D10" s="5">
         <v>178</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="9" t="s">
         <v>23</v>
       </c>
@@ -21378,8 +21576,12 @@
       <c r="D11" s="28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>Bing</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="25">
         <v>1</v>
       </c>
@@ -21389,8 +21591,12 @@
       <c r="D12" s="3">
         <v>442</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>2</v>
       </c>
@@ -21400,8 +21606,12 @@
       <c r="D13" s="4">
         <v>187</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>3</v>
       </c>
@@ -21411,8 +21621,12 @@
       <c r="D14" s="4">
         <v>168</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>4</v>
       </c>
@@ -21422,8 +21636,12 @@
       <c r="D15" s="4">
         <v>211</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>5</v>
       </c>
@@ -21433,8 +21651,12 @@
       <c r="D16" s="4">
         <v>180</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>6</v>
       </c>
@@ -21444,8 +21666,12 @@
       <c r="D17" s="4">
         <v>290</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>7</v>
       </c>
@@ -21455,8 +21681,12 @@
       <c r="D18" s="4">
         <v>143</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>8</v>
       </c>
@@ -21466,8 +21696,12 @@
       <c r="D19" s="4">
         <v>258</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>9</v>
       </c>
@@ -21477,8 +21711,12 @@
       <c r="D20" s="4">
         <v>219</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>10</v>
       </c>
@@ -21488,8 +21726,12 @@
       <c r="D21" s="4">
         <v>268</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>11</v>
       </c>
@@ -21499,8 +21741,12 @@
       <c r="D22" s="4">
         <v>295</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>Bing</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>12</v>
       </c>
@@ -21510,8 +21756,12 @@
       <c r="D23" s="4">
         <v>272</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>13</v>
       </c>
@@ -21521,8 +21771,12 @@
       <c r="D24" s="4">
         <v>253</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>14</v>
       </c>
@@ -21532,8 +21786,12 @@
       <c r="D25" s="4">
         <v>226</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>15</v>
       </c>
@@ -21543,8 +21801,12 @@
       <c r="D26" s="4">
         <v>259</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>16</v>
       </c>
@@ -21554,8 +21816,12 @@
       <c r="D27" s="4">
         <v>283</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
         <v>17</v>
       </c>
@@ -21565,8 +21831,12 @@
       <c r="D28" s="4">
         <v>274</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>Bing</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
         <v>18</v>
       </c>
@@ -21576,8 +21846,12 @@
       <c r="D29" s="4">
         <v>270</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
         <v>19</v>
       </c>
@@ -21587,8 +21861,12 @@
       <c r="D30" s="4">
         <v>327</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>Bing</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
         <v>20</v>
       </c>
@@ -21598,8 +21876,12 @@
       <c r="D31" s="4">
         <v>268</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
         <v>21</v>
       </c>
@@ -21609,8 +21891,12 @@
       <c r="D32" s="4">
         <v>275</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>Bing</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="23">
         <v>22</v>
       </c>
@@ -21620,8 +21906,12 @@
       <c r="D33" s="5">
         <v>75</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="9" t="s">
         <v>23</v>
       </c>
@@ -21631,8 +21921,12 @@
       <c r="D34" s="27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>Bing</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1">
         <v>1</v>
       </c>
@@ -21642,8 +21936,12 @@
       <c r="D35" s="4">
         <v>312</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="1">
         <v>2</v>
       </c>
@@ -21653,8 +21951,12 @@
       <c r="D36" s="4">
         <v>185</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="1">
         <v>3</v>
       </c>
@@ -21664,8 +21966,12 @@
       <c r="D37" s="4">
         <v>64</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
         <v>4</v>
       </c>
@@ -21675,8 +21981,12 @@
       <c r="D38" s="4">
         <v>199</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="1">
         <v>5</v>
       </c>
@@ -21686,8 +21996,12 @@
       <c r="D39" s="4">
         <v>211</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="1">
         <v>6</v>
       </c>
@@ -21697,8 +22011,12 @@
       <c r="D40" s="4">
         <v>194</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="1">
         <v>7</v>
       </c>
@@ -21708,9 +22026,13 @@
       <c r="D41" s="4">
         <v>202</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="1">
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="17">
         <v>8</v>
       </c>
       <c r="C42" s="4">
@@ -21719,8 +22041,12 @@
       <c r="D42" s="4">
         <v>137</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>Bing</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="1">
         <v>9</v>
       </c>
@@ -21730,8 +22056,12 @@
       <c r="D43" s="4">
         <v>191</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="1">
         <v>10</v>
       </c>
@@ -21741,8 +22071,12 @@
       <c r="D44" s="4">
         <v>237</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="1">
         <v>11</v>
       </c>
@@ -21752,8 +22086,12 @@
       <c r="D45" s="4">
         <v>223</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="1">
         <v>12</v>
       </c>
@@ -21763,8 +22101,12 @@
       <c r="D46" s="4">
         <v>202</v>
       </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="1">
         <v>13</v>
       </c>
@@ -21774,9 +22116,13 @@
       <c r="D47" s="4">
         <v>298</v>
       </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="1">
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="17">
         <v>14</v>
       </c>
       <c r="C48" s="4">
@@ -21785,8 +22131,12 @@
       <c r="D48" s="4">
         <v>294</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>Bing</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="1">
         <v>15</v>
       </c>
@@ -21796,8 +22146,12 @@
       <c r="D49" s="4">
         <v>321</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="1">
         <v>16</v>
       </c>
@@ -21807,9 +22161,13 @@
       <c r="D50" s="4">
         <v>177</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="1">
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="17">
         <v>17</v>
       </c>
       <c r="C51" s="4">
@@ -21818,8 +22176,12 @@
       <c r="D51" s="4">
         <v>280</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>Bing</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="1">
         <v>18</v>
       </c>
@@ -21829,8 +22191,20 @@
       <c r="D52" s="5">
         <v>78</v>
       </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>Afinn</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E3:E52">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="bing">
+      <formula>NOT(ISERROR(SEARCH("bing",E3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Afinn">
+      <formula>NOT(ISERROR(SEARCH("Afinn",E3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -21857,37 +22231,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="29" t="s">
@@ -21902,7 +22276,7 @@
       <c r="E5" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="35" t="s">
         <v>34</v>
       </c>
     </row>
@@ -21940,7 +22314,7 @@
       <c r="E7" s="31">
         <v>9</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="35" t="s">
         <v>35</v>
       </c>
     </row>
@@ -22031,7 +22405,7 @@
       <c r="E13" s="32">
         <v>8</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="35" t="s">
         <v>34</v>
       </c>
     </row>
@@ -22069,7 +22443,7 @@
       <c r="E15" s="31">
         <v>8</v>
       </c>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="35" t="s">
         <v>35</v>
       </c>
     </row>
@@ -22356,7 +22730,7 @@
       <c r="E35" s="32">
         <v>6</v>
       </c>
-      <c r="F35" s="36" t="s">
+      <c r="F35" s="35" t="s">
         <v>34</v>
       </c>
     </row>
@@ -22394,7 +22768,7 @@
       <c r="E37" s="31">
         <v>1.3</v>
       </c>
-      <c r="F37" s="36" t="s">
+      <c r="F37" s="35" t="s">
         <v>35</v>
       </c>
     </row>
@@ -22633,10 +23007,10 @@
     <mergeCell ref="B2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:C53">
-    <cfRule type="top10" dxfId="2" priority="2" rank="9"/>
+    <cfRule type="top10" dxfId="31" priority="2" rank="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D53">
-    <cfRule type="top10" dxfId="0" priority="1" rank="9"/>
+    <cfRule type="top10" dxfId="30" priority="1" rank="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22648,7 +23022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD661B37-D27A-4799-8CC8-98F6490B983D}">
   <dimension ref="B1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
